--- a/data/strategies/国金场外策略结果.xlsx
+++ b/data/strategies/国金场外策略结果.xlsx
@@ -18,26 +18,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
+  <si>
+    <t>广发中证全指可选消费ETF联接A</t>
+  </si>
+  <si>
+    <t>天弘中证证券保险A</t>
+  </si>
+  <si>
+    <t>交银创业板50指数</t>
+  </si>
   <si>
     <t>国泰中证全指家用电器ETF联接A</t>
   </si>
   <si>
-    <t>广发中证全指可选消费ETF联接A</t>
-  </si>
-  <si>
-    <t>交银创业板50指数</t>
-  </si>
-  <si>
     <t>富国中证军工</t>
   </si>
   <si>
     <t>交银国证新能源</t>
   </si>
   <si>
-    <t>天弘中证证券保险A</t>
-  </si>
-  <si>
     <t>指数基金精选</t>
   </si>
   <si>
@@ -68,70 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>3.31%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>3.74%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>15.97%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>17.38%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>22.21%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>4.30%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>12.11%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>4.58%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>19.67%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>18.35%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>22.23%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场外权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场外基金</t>
@@ -140,511 +140,490 @@
     <t>场外代码</t>
   </si>
   <si>
+    <t>001133.OF</t>
+  </si>
+  <si>
+    <t>001552.OF</t>
+  </si>
+  <si>
+    <t>007464.OF</t>
+  </si>
+  <si>
     <t>008713.OF</t>
   </si>
   <si>
-    <t>001133.OF</t>
-  </si>
-  <si>
-    <t>007464.OF</t>
-  </si>
-  <si>
     <t>161024.OF</t>
   </si>
   <si>
     <t>164905.OF</t>
   </si>
   <si>
-    <t>001552.OF</t>
-  </si>
-  <si>
-    <t>-1.93%</t>
-  </si>
-  <si>
-    <t>-0.86%</t>
-  </si>
-  <si>
-    <t>5.02%</t>
-  </si>
-  <si>
-    <t>4.69%</t>
-  </si>
-  <si>
-    <t>16.23%</t>
-  </si>
-  <si>
-    <t>-2.25%</t>
-  </si>
-  <si>
-    <t>6.75%</t>
-  </si>
-  <si>
-    <t>5.43%</t>
-  </si>
-  <si>
-    <t>30.44%</t>
-  </si>
-  <si>
-    <t>12.01%</t>
-  </si>
-  <si>
-    <t>38.15%</t>
+    <t>-1.25%</t>
+  </si>
+  <si>
+    <t>-6.40%</t>
+  </si>
+  <si>
+    <t>8.49%</t>
+  </si>
+  <si>
+    <t>-2.54%</t>
+  </si>
+  <si>
+    <t>-0.00%</t>
+  </si>
+  <si>
+    <t>25.28%</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
+    <t>-3.27%</t>
+  </si>
+  <si>
+    <t>26.17%</t>
+  </si>
+  <si>
+    <t>-0.85%</t>
+  </si>
+  <si>
+    <t>7.53%</t>
+  </si>
+  <si>
+    <t>42.92%</t>
+  </si>
+  <si>
+    <t>-0.08%</t>
+  </si>
+  <si>
+    <t>-15.86%</t>
+  </si>
+  <si>
+    <t>20.75%</t>
+  </si>
+  <si>
+    <t>-0.78%</t>
+  </si>
+  <si>
+    <t>-9.91%</t>
+  </si>
+  <si>
+    <t>29.51%</t>
+  </si>
+  <si>
+    <t>14.08%</t>
+  </si>
+  <si>
+    <t>18.15%</t>
+  </si>
+  <si>
+    <t>31.35%</t>
+  </si>
+  <si>
+    <t>12.95%</t>
+  </si>
+  <si>
+    <t>32.58%</t>
+  </si>
+  <si>
+    <t>34.89%</t>
+  </si>
+  <si>
+    <t>14.78%</t>
+  </si>
+  <si>
+    <t>22.55%</t>
+  </si>
+  <si>
+    <t>28.29%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>26.82%</t>
+  </si>
+  <si>
+    <t>31.89%</t>
+  </si>
+  <si>
+    <t>18.64%</t>
+  </si>
+  <si>
+    <t>22.56%</t>
+  </si>
+  <si>
+    <t>32.44%</t>
+  </si>
+  <si>
+    <t>18.76%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>34.13%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>000333.SZ</t>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+  </si>
+  <si>
+    <t>600690.SH</t>
+  </si>
+  <si>
+    <t>603486.SH</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>601318.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300059.SZ</t>
+  </si>
+  <si>
+    <t>688169.SH</t>
+  </si>
+  <si>
+    <t>600030.SH</t>
+  </si>
+  <si>
+    <t>601888.SH</t>
+  </si>
+  <si>
+    <t>600893.SH</t>
+  </si>
+  <si>
+    <t>002508.SZ</t>
+  </si>
+  <si>
+    <t>002179.SZ</t>
+  </si>
+  <si>
+    <t>600837.SH</t>
+  </si>
+  <si>
+    <t>603195.SH</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
+    <t>000768.SZ</t>
+  </si>
+  <si>
+    <t>600760.SH</t>
+  </si>
+  <si>
+    <t>419.39%</t>
+  </si>
+  <si>
+    <t>384.52%</t>
+  </si>
+  <si>
+    <t>307.35%</t>
+  </si>
+  <si>
+    <t>248.81%</t>
+  </si>
+  <si>
+    <t>246.36%</t>
+  </si>
+  <si>
+    <t>212.18%</t>
+  </si>
+  <si>
+    <t>199.69%</t>
+  </si>
+  <si>
+    <t>193.30%</t>
+  </si>
+  <si>
+    <t>188.11%</t>
+  </si>
+  <si>
+    <t>160.17%</t>
+  </si>
+  <si>
+    <t>147.42%</t>
+  </si>
+  <si>
+    <t>118.41%</t>
+  </si>
+  <si>
+    <t>112.11%</t>
+  </si>
+  <si>
+    <t>105.09%</t>
+  </si>
+  <si>
+    <t>85.92%</t>
+  </si>
+  <si>
+    <t>77.04%</t>
+  </si>
+  <si>
+    <t>75.14%</t>
+  </si>
+  <si>
+    <t>74.28%</t>
+  </si>
+  <si>
+    <t>71.92%</t>
+  </si>
+  <si>
+    <t>70.11%</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>科沃斯</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>中国平安</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>东方财富</t>
+  </si>
+  <si>
+    <t>石头科技</t>
+  </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>航发动力</t>
+  </si>
+  <si>
+    <t>老板电器</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>海通证券</t>
+  </si>
+  <si>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>中航西飞</t>
+  </si>
+  <si>
+    <t>中航沈飞</t>
+  </si>
+  <si>
+    <t>暖通空调</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>电冰箱</t>
+  </si>
+  <si>
+    <t>服务机器人</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>产险:机动车辆保险</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>证券经纪业务</t>
+  </si>
+  <si>
+    <t>智能扫地机</t>
+  </si>
+  <si>
+    <t>商品贸易-免税商品</t>
+  </si>
+  <si>
+    <t>航空发动机制造及衍生产品</t>
+  </si>
+  <si>
+    <t>油烟机</t>
+  </si>
+  <si>
+    <t>电连接器</t>
+  </si>
+  <si>
+    <t>电连接产品</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>航空产品</t>
+  </si>
+  <si>
+    <t>-24.87%</t>
+  </si>
+  <si>
+    <t>-20.16%</t>
+  </si>
+  <si>
+    <t>-8.19%</t>
+  </si>
+  <si>
+    <t>148.35%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>-29.54%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>37.06%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>-16.18%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>-6.00%</t>
+  </si>
+  <si>
+    <t>13.18%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
+    <t>-28.18%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>国防军工</t>
+  </si>
+  <si>
+    <t>证券</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>商业贸易</t>
+  </si>
+  <si>
+    <t>电气设备</t>
+  </si>
+  <si>
+    <t>20.32%</t>
+  </si>
+  <si>
+    <t>5.18%</t>
+  </si>
+  <si>
+    <t>5.16%</t>
+  </si>
+  <si>
+    <t>3.08%</t>
+  </si>
+  <si>
+    <t>2.65%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>2.42%</t>
   </si>
   <si>
     <t>1.48%</t>
   </si>
   <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>17.40%</t>
-  </si>
-  <si>
-    <t>-9.03%</t>
-  </si>
-  <si>
-    <t>16.29%</t>
-  </si>
-  <si>
-    <t>-10.48%</t>
-  </si>
-  <si>
-    <t>9.37%</t>
-  </si>
-  <si>
-    <t>11.09%</t>
-  </si>
-  <si>
-    <t>26.71%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>35.00%</t>
-  </si>
-  <si>
-    <t>15.37%</t>
-  </si>
-  <si>
-    <t>14.27%</t>
-  </si>
-  <si>
-    <t>14.89%</t>
-  </si>
-  <si>
-    <t>26.74%</t>
-  </si>
-  <si>
-    <t>24.35%</t>
-  </si>
-  <si>
-    <t>31.22%</t>
-  </si>
-  <si>
-    <t>21.39%</t>
-  </si>
-  <si>
-    <t>18.96%</t>
-  </si>
-  <si>
-    <t>18.91%</t>
-  </si>
-  <si>
-    <t>32.36%</t>
-  </si>
-  <si>
-    <t>32.25%</t>
-  </si>
-  <si>
-    <t>34.01%</t>
-  </si>
-  <si>
-    <t>22.68%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>000333.SZ</t>
-  </si>
-  <si>
-    <t>300059.SZ</t>
-  </si>
-  <si>
-    <t>600690.SH</t>
-  </si>
-  <si>
-    <t>000651.SZ</t>
-  </si>
-  <si>
-    <t>603486.SH</t>
-  </si>
-  <si>
-    <t>601318.SH</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
-    <t>600030.SH</t>
-  </si>
-  <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>300760.SZ</t>
-  </si>
-  <si>
-    <t>300124.SZ</t>
-  </si>
-  <si>
-    <t>601888.SH</t>
-  </si>
-  <si>
-    <t>002508.SZ</t>
-  </si>
-  <si>
-    <t>600893.SH</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
-    <t>002179.SZ</t>
-  </si>
-  <si>
-    <t>300122.SZ</t>
-  </si>
-  <si>
-    <t>6.03%</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>3.77%</t>
-  </si>
-  <si>
-    <t>3.66%</t>
-  </si>
-  <si>
-    <t>3.47%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>1.97%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>1.33%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.26%</t>
-  </si>
-  <si>
-    <t>1.25%</t>
-  </si>
-  <si>
-    <t>1.13%</t>
-  </si>
-  <si>
-    <t>0.93%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>美的集团</t>
-  </si>
-  <si>
-    <t>东方财富</t>
-  </si>
-  <si>
-    <t>海尔智家</t>
-  </si>
-  <si>
-    <t>格力电器</t>
-  </si>
-  <si>
-    <t>科沃斯</t>
-  </si>
-  <si>
-    <t>中国平安</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>中信证券</t>
-  </si>
-  <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>迈瑞医疗</t>
-  </si>
-  <si>
-    <t>汇川技术</t>
-  </si>
-  <si>
-    <t>中国中免</t>
-  </si>
-  <si>
-    <t>老板电器</t>
-  </si>
-  <si>
-    <t>航发动力</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
-    <t>中航光电</t>
-  </si>
-  <si>
-    <t>智飞生物</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>暖通空调</t>
-  </si>
-  <si>
-    <t>证券经纪业务</t>
-  </si>
-  <si>
-    <t>电冰箱</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>服务机器人</t>
-  </si>
-  <si>
-    <t>产险:机动车辆保险</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>生命信息与支持类产品</t>
-  </si>
-  <si>
-    <t>变频器类</t>
-  </si>
-  <si>
-    <t>商品贸易-免税商品</t>
-  </si>
-  <si>
-    <t>油烟机</t>
-  </si>
-  <si>
-    <t>航空发动机制造及衍生产品</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>代理产品-二类苗</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>-22.20%</t>
-  </si>
-  <si>
-    <t>36.19%</t>
-  </si>
-  <si>
-    <t>-5.77%</t>
-  </si>
-  <si>
-    <t>-14.05%</t>
-  </si>
-  <si>
-    <t>151.63%</t>
-  </si>
-  <si>
-    <t>-22.18%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-11.82%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>14.96%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>家电家具</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>证券</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>军工</t>
-  </si>
-  <si>
-    <t>保险</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
-    <t>医疗器械</t>
-  </si>
-  <si>
-    <t>商业贸易</t>
-  </si>
-  <si>
-    <t>医疗服务</t>
-  </si>
-  <si>
-    <t>医药生物</t>
-  </si>
-  <si>
-    <t>28.85%</t>
-  </si>
-  <si>
-    <t>14.02%</t>
-  </si>
-  <si>
-    <t>12.32%</t>
-  </si>
-  <si>
-    <t>10.44%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>5.09%</t>
-  </si>
-  <si>
-    <t>4.58%</t>
-  </si>
-  <si>
-    <t>3.86%</t>
-  </si>
-  <si>
-    <t>3.56%</t>
-  </si>
-  <si>
-    <t>3.09%</t>
-  </si>
-  <si>
-    <t>2.63%</t>
+    <t>0.94%</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,25 +1062,25 @@
         <v>44200</v>
       </c>
       <c r="B3">
-        <v>1.012275597814518</v>
+        <v>1.015057573073517</v>
       </c>
       <c r="C3">
-        <v>1.015057573073517</v>
+        <v>1.000624888412783</v>
       </c>
       <c r="D3">
         <v>1.036732341228254</v>
       </c>
       <c r="E3">
-        <v>1.062350119904077</v>
+        <v>1.012275597814518</v>
       </c>
       <c r="F3">
-        <v>1.04158940397351</v>
+        <v>1.062381554011371</v>
       </c>
       <c r="G3">
-        <v>1.000624888412783</v>
+        <v>1.041617622330587</v>
       </c>
       <c r="H3">
-        <v>1.027744885613137</v>
+        <v>1.027892932245743</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1115,25 +1094,25 @@
         <v>44201</v>
       </c>
       <c r="B4">
-        <v>1.032072660185908</v>
+        <v>1.02204507430371</v>
       </c>
       <c r="C4">
-        <v>1.02204507430371</v>
+        <v>0.9968755579360828</v>
       </c>
       <c r="D4">
         <v>1.041291133934186</v>
       </c>
       <c r="E4">
-        <v>1.071143085531575</v>
+        <v>1.032072660185908</v>
       </c>
       <c r="F4">
-        <v>1.041236203090508</v>
+        <v>1.071172878500737</v>
       </c>
       <c r="G4">
-        <v>0.9968755579360828</v>
+        <v>1.041281318311754</v>
       </c>
       <c r="H4">
-        <v>1.0343677469533</v>
+        <v>1.033877603887751</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1147,25 +1126,25 @@
         <v>44202</v>
       </c>
       <c r="B5">
-        <v>1.025189810544242</v>
+        <v>1.013286093888397</v>
       </c>
       <c r="C5">
-        <v>1.013286093888397</v>
+        <v>1.001249776825567</v>
       </c>
       <c r="D5">
         <v>1.051509117585412</v>
       </c>
       <c r="E5">
-        <v>1.087130295763389</v>
+        <v>1.025189810544242</v>
       </c>
       <c r="F5">
-        <v>1.034348785871965</v>
+        <v>1.087123604969467</v>
       </c>
       <c r="G5">
-        <v>1.001249776825567</v>
+        <v>1.034387085925677</v>
       </c>
       <c r="H5">
-        <v>1.035742028478329</v>
+        <v>1.035151584034505</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1179,25 +1158,25 @@
         <v>44203</v>
       </c>
       <c r="B6">
-        <v>1.039097424253175</v>
+        <v>1.023324475937408</v>
       </c>
       <c r="C6">
-        <v>1.023324475937408</v>
+        <v>1.01178361006963</v>
       </c>
       <c r="D6">
         <v>1.068591490253616</v>
       </c>
       <c r="E6">
-        <v>1.112709832134293</v>
+        <v>1.039097424253175</v>
       </c>
       <c r="F6">
-        <v>1.056512141280353</v>
+        <v>1.112707938513371</v>
       </c>
       <c r="G6">
-        <v>1.01178361006963</v>
+        <v>1.056499075163948</v>
       </c>
       <c r="H6">
-        <v>1.052187291814611</v>
+        <v>1.051396400438223</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1211,25 +1190,25 @@
         <v>44204</v>
       </c>
       <c r="B7">
-        <v>1.046051231107642</v>
+        <v>1.026965849817931</v>
       </c>
       <c r="C7">
-        <v>1.026965849817931</v>
+        <v>1.004909837529013</v>
       </c>
       <c r="D7">
         <v>1.064923496122406</v>
       </c>
       <c r="E7">
-        <v>1.084732214228617</v>
+        <v>1.046051231107642</v>
       </c>
       <c r="F7">
-        <v>1.049889624724062</v>
+        <v>1.084754685196884</v>
       </c>
       <c r="G7">
-        <v>1.004909837529013</v>
+        <v>1.049941146796704</v>
       </c>
       <c r="H7">
-        <v>1.047169574390953</v>
+        <v>1.046226404282604</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1243,25 +1222,25 @@
         <v>44207</v>
       </c>
       <c r="B8">
-        <v>1.027744270205066</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="C8">
-        <v>1.027457927369353</v>
+        <v>0.9825031244420639</v>
       </c>
       <c r="D8">
         <v>1.045325927478516</v>
       </c>
       <c r="E8">
-        <v>1.051159072741807</v>
+        <v>1.027744270205066</v>
       </c>
       <c r="F8">
-        <v>1.020132450331126</v>
+        <v>1.051168667087808</v>
       </c>
       <c r="G8">
-        <v>0.9825031244420639</v>
+        <v>1.020178241129982</v>
       </c>
       <c r="H8">
-        <v>1.026801925769369</v>
+        <v>1.026795916399312</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1275,25 +1254,25 @@
         <v>44208</v>
       </c>
       <c r="B9">
-        <v>1.061307031859789</v>
+        <v>1.046255289833678</v>
       </c>
       <c r="C9">
-        <v>1.046255289833678</v>
+        <v>1.041153365470451</v>
       </c>
       <c r="D9">
         <v>1.079333473066443</v>
       </c>
       <c r="E9">
-        <v>1.091127098321343</v>
+        <v>1.061307031859789</v>
       </c>
       <c r="F9">
-        <v>1.037527593818985</v>
+        <v>1.091124447252053</v>
       </c>
       <c r="G9">
-        <v>1.041153365470451</v>
+        <v>1.03758197410459</v>
       </c>
       <c r="H9">
-        <v>1.060537603101915</v>
+        <v>1.059792775383057</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1307,25 +1286,25 @@
         <v>44209</v>
       </c>
       <c r="B10">
-        <v>1.068899453629461</v>
+        <v>1.043007577994292</v>
       </c>
       <c r="C10">
-        <v>1.043007577994292</v>
+        <v>1.020621317621853</v>
       </c>
       <c r="D10">
         <v>1.065919094529449</v>
       </c>
       <c r="E10">
-        <v>1.075939248601119</v>
+        <v>1.068899453629461</v>
       </c>
       <c r="F10">
-        <v>1.028344370860927</v>
+        <v>1.075963360707517</v>
       </c>
       <c r="G10">
-        <v>1.020621317621853</v>
+        <v>1.028333613586683</v>
       </c>
       <c r="H10">
-        <v>1.052150586893511</v>
+        <v>1.050857996336575</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1339,25 +1318,25 @@
         <v>44210</v>
       </c>
       <c r="B11">
-        <v>1.048534733555666</v>
+        <v>1.022143489813995</v>
       </c>
       <c r="C11">
-        <v>1.022143489813995</v>
+        <v>0.9969648277093376</v>
       </c>
       <c r="D11">
         <v>1.049465520855167</v>
       </c>
       <c r="E11">
-        <v>1.018385291766587</v>
+        <v>1.048534733555666</v>
       </c>
       <c r="F11">
-        <v>1.008565121412804</v>
+        <v>1.018372288902927</v>
       </c>
       <c r="G11">
-        <v>0.9969648277093376</v>
+        <v>1.008575752480242</v>
       </c>
       <c r="H11">
-        <v>1.026508860487575</v>
+        <v>1.025188942531058</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1371,25 +1350,25 @@
         <v>44211</v>
       </c>
       <c r="B12">
-        <v>1.052721209110906</v>
+        <v>1.02627694124594</v>
       </c>
       <c r="C12">
-        <v>1.02627694124594</v>
+        <v>1.001428316372076</v>
       </c>
       <c r="D12">
         <v>1.050094319849088</v>
       </c>
       <c r="E12">
-        <v>1.01119104716227</v>
+        <v>1.052721209110906</v>
       </c>
       <c r="F12">
-        <v>1.016247240618102</v>
+        <v>1.011212886923563</v>
       </c>
       <c r="G12">
-        <v>1.001428316372076</v>
+        <v>1.016226668908694</v>
       </c>
       <c r="H12">
-        <v>1.028834637601757</v>
+        <v>1.027512614416291</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1403,25 +1382,25 @@
         <v>44214</v>
       </c>
       <c r="B13">
-        <v>1.064925849712623</v>
+        <v>1.034543844109832</v>
       </c>
       <c r="C13">
-        <v>1.034543844109832</v>
+        <v>1.008926977325478</v>
       </c>
       <c r="D13">
         <v>1.071473485642423</v>
       </c>
       <c r="E13">
-        <v>1.031175059952038</v>
+        <v>1.064925849712623</v>
       </c>
       <c r="F13">
-        <v>1.028079470198675</v>
+        <v>1.031164455674879</v>
       </c>
       <c r="G13">
-        <v>1.008926977325478</v>
+        <v>1.028081385572558</v>
       </c>
       <c r="H13">
-        <v>1.042688669808913</v>
+        <v>1.041168266193282</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1435,25 +1414,25 @@
         <v>44215</v>
       </c>
       <c r="B14">
-        <v>1.047967075853261</v>
+        <v>1.020372010628875</v>
       </c>
       <c r="C14">
-        <v>1.020372010628875</v>
+        <v>1.009284056418497</v>
       </c>
       <c r="D14">
         <v>1.048260322783484</v>
       </c>
       <c r="E14">
-        <v>1.009592326139089</v>
+        <v>1.047967075853261</v>
       </c>
       <c r="F14">
-        <v>1.00485651214128</v>
+        <v>1.009580964413561</v>
       </c>
       <c r="G14">
-        <v>1.009284056418497</v>
+        <v>1.004876408273079</v>
       </c>
       <c r="H14">
-        <v>1.02586121552651</v>
+        <v>1.024482742426231</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1467,25 +1446,25 @@
         <v>44216</v>
       </c>
       <c r="B15">
-        <v>1.050663449939686</v>
+        <v>1.028442082472198</v>
       </c>
       <c r="C15">
-        <v>1.028442082472198</v>
+        <v>1.003660060703446</v>
       </c>
       <c r="D15">
         <v>1.090180255711591</v>
       </c>
       <c r="E15">
-        <v>1.028776978417266</v>
+        <v>1.050663449939686</v>
       </c>
       <c r="F15">
-        <v>1.029139072847682</v>
+        <v>1.028795535902295</v>
       </c>
       <c r="G15">
-        <v>1.003660060703446</v>
+        <v>1.029174373633765</v>
       </c>
       <c r="H15">
-        <v>1.041671470296344</v>
+        <v>1.040568480663636</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1499,25 +1478,25 @@
         <v>44217</v>
       </c>
       <c r="B16">
-        <v>1.066841694458242</v>
+        <v>1.041531345340026</v>
       </c>
       <c r="C16">
-        <v>1.041531345340026</v>
+        <v>1.013122656668452</v>
       </c>
       <c r="D16">
         <v>1.117533011947181</v>
       </c>
       <c r="E16">
-        <v>1.037569944044764</v>
+        <v>1.066841694458242</v>
       </c>
       <c r="F16">
-        <v>1.056777041942605</v>
+        <v>1.037586860391661</v>
       </c>
       <c r="G16">
-        <v>1.013122656668452</v>
+        <v>1.056835379182781</v>
       </c>
       <c r="H16">
-        <v>1.059225089480461</v>
+        <v>1.057970860062612</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1531,25 +1510,25 @@
         <v>44218</v>
       </c>
       <c r="B17">
-        <v>1.064287234797417</v>
+        <v>1.045664796771971</v>
       </c>
       <c r="C17">
-        <v>1.045664796771971</v>
+        <v>0.9922335297268343</v>
       </c>
       <c r="D17">
         <v>1.142422972123245</v>
       </c>
       <c r="E17">
-        <v>1.039968025579536</v>
+        <v>1.064287234797417</v>
       </c>
       <c r="F17">
-        <v>1.077527593818985</v>
+        <v>1.039955780164245</v>
       </c>
       <c r="G17">
-        <v>0.9922335297268343</v>
+        <v>1.077518076341012</v>
       </c>
       <c r="H17">
-        <v>1.064651133268731</v>
+        <v>1.06371674693347</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1563,25 +1542,25 @@
         <v>44221</v>
       </c>
       <c r="B18">
-        <v>1.065990207904634</v>
+        <v>1.051176065347899</v>
       </c>
       <c r="C18">
-        <v>1.051176065347899</v>
+        <v>0.9916979110873058</v>
       </c>
       <c r="D18">
         <v>1.139488576818277</v>
       </c>
       <c r="E18">
-        <v>1.040767386091127</v>
+        <v>1.065990207904634</v>
       </c>
       <c r="F18">
-        <v>1.078940397350993</v>
+        <v>1.040798062750053</v>
       </c>
       <c r="G18">
-        <v>0.9916979110873058</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="H18">
-        <v>1.065483020926181</v>
+        <v>1.064747960957692</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1595,25 +1574,25 @@
         <v>44222</v>
       </c>
       <c r="B19">
-        <v>1.040374654083588</v>
+        <v>1.031099301249877</v>
       </c>
       <c r="C19">
-        <v>1.031099301249877</v>
+        <v>0.9573290483842171</v>
       </c>
       <c r="D19">
         <v>1.106057430308111</v>
       </c>
       <c r="E19">
-        <v>0.9760191846522783</v>
+        <v>1.040374654083588</v>
       </c>
       <c r="F19">
-        <v>1.057836644591611</v>
+        <v>0.9760475889660982</v>
       </c>
       <c r="G19">
-        <v>0.9573290483842171</v>
+        <v>1.05784429123928</v>
       </c>
       <c r="H19">
-        <v>1.032629043710037</v>
+        <v>1.032170683712575</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1627,25 +1606,25 @@
         <v>44223</v>
       </c>
       <c r="B20">
-        <v>1.040729440147591</v>
+        <v>1.035429583702391</v>
       </c>
       <c r="C20">
-        <v>1.035429583702391</v>
+        <v>0.9591144438493125</v>
       </c>
       <c r="D20">
         <v>1.117952211276462</v>
       </c>
       <c r="E20">
-        <v>0.9736211031175059</v>
+        <v>1.040729440147591</v>
       </c>
       <c r="F20">
-        <v>1.071876379690949</v>
+        <v>0.9736260265319014</v>
       </c>
       <c r="G20">
-        <v>0.9591144438493125</v>
+        <v>1.071884984025559</v>
       </c>
       <c r="H20">
-        <v>1.037742556838834</v>
+        <v>1.037479593178925</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1659,25 +1638,25 @@
         <v>44224</v>
       </c>
       <c r="B21">
-        <v>1.008443908323281</v>
+        <v>1.009743135518158</v>
       </c>
       <c r="C21">
-        <v>1.009743135518158</v>
+        <v>0.9493840385645419</v>
       </c>
       <c r="D21">
         <v>1.077709075665479</v>
       </c>
       <c r="E21">
-        <v>0.9608313349320544</v>
+        <v>1.008443908323281</v>
       </c>
       <c r="F21">
-        <v>1.031788079470199</v>
+        <v>0.9608338597599495</v>
       </c>
       <c r="G21">
-        <v>0.9493840385645419</v>
+        <v>1.031780729779721</v>
       </c>
       <c r="H21">
-        <v>1.009992585070495</v>
+        <v>1.010056822700851</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1691,25 +1670,25 @@
         <v>44225</v>
       </c>
       <c r="B22">
-        <v>1.002199673596821</v>
+        <v>1.005216022045074</v>
       </c>
       <c r="C22">
-        <v>1.005216022045074</v>
+        <v>0.9367970005356187</v>
       </c>
       <c r="D22">
         <v>1.063403898553762</v>
       </c>
       <c r="E22">
-        <v>0.932853717026379</v>
+        <v>1.002199673596821</v>
       </c>
       <c r="F22">
-        <v>1.013863134657837</v>
+        <v>0.9328806064434618</v>
       </c>
       <c r="G22">
-        <v>0.9367970005356187</v>
+        <v>1.013872540776862</v>
       </c>
       <c r="H22">
-        <v>0.996430195569853</v>
+        <v>0.9965864573226819</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1723,25 +1702,25 @@
         <v>44228</v>
       </c>
       <c r="B23">
-        <v>1.010146881430497</v>
+        <v>1.016041728176361</v>
       </c>
       <c r="C23">
-        <v>1.016041728176361</v>
+        <v>0.9339403677914657</v>
       </c>
       <c r="D23">
         <v>1.07425068119891</v>
       </c>
       <c r="E23">
-        <v>0.9280575539568345</v>
+        <v>1.010146881430497</v>
       </c>
       <c r="F23">
-        <v>1.006622516556291</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="G23">
-        <v>0.9339403677914657</v>
+        <v>1.006642004371952</v>
       </c>
       <c r="H23">
-        <v>0.9995788374980243</v>
+        <v>0.9998734921504017</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1755,25 +1734,25 @@
         <v>44229</v>
       </c>
       <c r="B24">
-        <v>1.034769034272334</v>
+        <v>1.045763212282256</v>
       </c>
       <c r="C24">
-        <v>1.045763212282256</v>
+        <v>0.9346545259775039</v>
       </c>
       <c r="D24">
         <v>1.100345839446657</v>
       </c>
       <c r="E24">
-        <v>0.9424460431654677</v>
+        <v>1.034769034272334</v>
       </c>
       <c r="F24">
-        <v>1.029845474613686</v>
+        <v>0.9424615708570225</v>
       </c>
       <c r="G24">
-        <v>0.9346545259775039</v>
+        <v>1.029846981671431</v>
       </c>
       <c r="H24">
-        <v>1.019929363149635</v>
+        <v>1.020481627262526</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1787,25 +1766,25 @@
         <v>44230</v>
       </c>
       <c r="B25">
-        <v>1.025686511033847</v>
+        <v>1.03985828166519</v>
       </c>
       <c r="C25">
-        <v>1.03985828166519</v>
+        <v>0.9234065345474022</v>
       </c>
       <c r="D25">
         <v>1.103018235170824</v>
       </c>
       <c r="E25">
-        <v>0.9136690647482015</v>
+        <v>1.025686511033847</v>
       </c>
       <c r="F25">
-        <v>1.020309050772627</v>
+        <v>0.9136660349547273</v>
       </c>
       <c r="G25">
-        <v>0.9234065345474022</v>
+        <v>1.020346393139398</v>
       </c>
       <c r="H25">
-        <v>1.010327389000947</v>
+        <v>1.011041124418509</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1819,25 +1798,25 @@
         <v>44231</v>
       </c>
       <c r="B26">
-        <v>1.020577591712198</v>
+        <v>1.0271626808385</v>
       </c>
       <c r="C26">
-        <v>1.0271626808385</v>
+        <v>0.912694161756829</v>
       </c>
       <c r="D26">
         <v>1.099350241039614</v>
       </c>
       <c r="E26">
-        <v>0.9024780175859313</v>
+        <v>1.020577591712198</v>
       </c>
       <c r="F26">
-        <v>0.999823399558499</v>
+        <v>0.9025057906927774</v>
       </c>
       <c r="G26">
-        <v>0.912694161756829</v>
+        <v>0.9998318479905836</v>
       </c>
       <c r="H26">
-        <v>1.000309305511326</v>
+        <v>1.000643993198481</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1851,25 +1830,25 @@
         <v>44232</v>
       </c>
       <c r="B27">
-        <v>1.023415880224225</v>
+        <v>1.019781517567169</v>
       </c>
       <c r="C27">
-        <v>1.019781517567169</v>
+        <v>0.909480449919657</v>
       </c>
       <c r="D27">
         <v>1.098407042548732</v>
       </c>
       <c r="E27">
-        <v>0.8856914468425261</v>
+        <v>1.023415880224225</v>
       </c>
       <c r="F27">
-        <v>0.9731567328918321</v>
+        <v>0.8857127816382397</v>
       </c>
       <c r="G27">
-        <v>0.909480449919657</v>
+        <v>0.9731797544980663</v>
       </c>
       <c r="H27">
-        <v>0.992581106637769</v>
+        <v>0.9924060419652082</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1883,25 +1862,25 @@
         <v>44235</v>
       </c>
       <c r="B28">
-        <v>1.023841623501029</v>
+        <v>1.029032575533904</v>
       </c>
       <c r="C28">
-        <v>1.029032575533904</v>
+        <v>0.9067130869487591</v>
       </c>
       <c r="D28">
         <v>1.12879899392161</v>
       </c>
       <c r="E28">
-        <v>0.8880895283772982</v>
+        <v>1.023841623501029</v>
       </c>
       <c r="F28">
-        <v>0.9835761589403973</v>
+        <v>0.8880817014108234</v>
       </c>
       <c r="G28">
-        <v>0.9067130869487591</v>
+        <v>0.9836051790818899</v>
       </c>
       <c r="H28">
-        <v>1.001639825954582</v>
+        <v>1.001902552532478</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1915,25 +1894,25 @@
         <v>44236</v>
       </c>
       <c r="B29">
-        <v>1.041368055062797</v>
+        <v>1.048715677590788</v>
       </c>
       <c r="C29">
-        <v>1.048715677590788</v>
+        <v>0.9262631672915551</v>
       </c>
       <c r="D29">
         <v>1.146562565499895</v>
       </c>
       <c r="E29">
-        <v>0.935251798561151</v>
+        <v>1.041368055062797</v>
       </c>
       <c r="F29">
-        <v>1.013333333333333</v>
+        <v>0.9352495262160455</v>
       </c>
       <c r="G29">
-        <v>0.9262631672915551</v>
+        <v>1.013368084748613</v>
       </c>
       <c r="H29">
-        <v>1.026120720629063</v>
+        <v>1.026492973615988</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1947,25 +1926,25 @@
         <v>44237</v>
       </c>
       <c r="B30">
-        <v>1.052650251898106</v>
+        <v>1.070071843322508</v>
       </c>
       <c r="C30">
-        <v>1.070071843322508</v>
+        <v>0.9292090698089626</v>
       </c>
       <c r="D30">
         <v>1.173915321735485</v>
       </c>
       <c r="E30">
-        <v>0.9312549960031975</v>
+        <v>1.052650251898106</v>
       </c>
       <c r="F30">
-        <v>1.024547461368653</v>
+        <v>0.9312486839334596</v>
       </c>
       <c r="G30">
-        <v>0.9292090698089626</v>
+        <v>1.024550193374811</v>
       </c>
       <c r="H30">
-        <v>1.038575620302217</v>
+        <v>1.039446162863899</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1979,25 +1958,25 @@
         <v>44245</v>
       </c>
       <c r="B31">
-        <v>1.031859788547506</v>
+        <v>1.064363743726011</v>
       </c>
       <c r="C31">
-        <v>1.064363743726011</v>
+        <v>0.940992679878593</v>
       </c>
       <c r="D31">
         <v>1.138912177740516</v>
       </c>
       <c r="E31">
-        <v>0.9256594724220623</v>
+        <v>1.031859788547506</v>
       </c>
       <c r="F31">
-        <v>1.031258278145695</v>
+        <v>0.9256685618024847</v>
       </c>
       <c r="G31">
-        <v>0.940992679878593</v>
+        <v>1.031276273751471</v>
       </c>
       <c r="H31">
-        <v>1.028495519383459</v>
+        <v>1.030124779890313</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -2011,25 +1990,25 @@
         <v>44246</v>
       </c>
       <c r="B32">
-        <v>1.029092457248279</v>
+        <v>1.066036807400846</v>
       </c>
       <c r="C32">
-        <v>1.066036807400846</v>
+        <v>0.9592929833958221</v>
       </c>
       <c r="D32">
         <v>1.122196604485433</v>
       </c>
       <c r="E32">
-        <v>0.9280575539568345</v>
+        <v>1.029092457248279</v>
       </c>
       <c r="F32">
-        <v>1.032759381898455</v>
+        <v>0.9280374815750684</v>
       </c>
       <c r="G32">
-        <v>0.9592929833958221</v>
+        <v>1.03278964183622</v>
       </c>
       <c r="H32">
-        <v>1.028179821344536</v>
+        <v>1.030028566985564</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2043,25 +2022,25 @@
         <v>44249</v>
       </c>
       <c r="B33">
-        <v>0.9862343007166678</v>
+        <v>1.027654758389922</v>
       </c>
       <c r="C33">
-        <v>1.027654758389922</v>
+        <v>0.938225316907695</v>
       </c>
       <c r="D33">
         <v>1.071578285474743</v>
       </c>
       <c r="E33">
-        <v>0.8992805755395684</v>
+        <v>0.9862343007166678</v>
       </c>
       <c r="F33">
-        <v>1.02887417218543</v>
+        <v>0.8992945883343861</v>
       </c>
       <c r="G33">
-        <v>0.938225316907695</v>
+        <v>1.02892214561964</v>
       </c>
       <c r="H33">
-        <v>0.9956677406916747</v>
+        <v>0.9977480615096914</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2075,25 +2054,25 @@
         <v>44250</v>
       </c>
       <c r="B34">
-        <v>0.9871567444830767</v>
+        <v>1.016041728176361</v>
       </c>
       <c r="C34">
-        <v>1.016041728176361</v>
+        <v>0.9399214425995357</v>
       </c>
       <c r="D34">
         <v>1.06633829385873</v>
       </c>
       <c r="E34">
-        <v>0.9224620303756994</v>
+        <v>0.9871567444830767</v>
       </c>
       <c r="F34">
-        <v>1.021898454746137</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="G34">
-        <v>0.9399214425995357</v>
+        <v>1.021943837228855</v>
       </c>
       <c r="H34">
-        <v>0.9957475560530211</v>
+        <v>0.9971979119703521</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2107,25 +2086,25 @@
         <v>44251</v>
       </c>
       <c r="B35">
-        <v>0.9909884339743136</v>
+        <v>1.005511268575928</v>
       </c>
       <c r="C35">
-        <v>1.005511268575928</v>
+        <v>0.9329584002856631</v>
       </c>
       <c r="D35">
         <v>1.027981555229512</v>
       </c>
       <c r="E35">
-        <v>0.9224620303756994</v>
+        <v>0.9909884339743136</v>
       </c>
       <c r="F35">
-        <v>0.9947902869757176</v>
+        <v>0.9224573594440935</v>
       </c>
       <c r="G35">
-        <v>0.9329584002856631</v>
+        <v>0.9947872877080881</v>
       </c>
       <c r="H35">
-        <v>0.9821522957727161</v>
+        <v>0.9828772869729115</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2139,25 +2118,25 @@
         <v>44252</v>
       </c>
       <c r="B36">
-        <v>0.9929042787199319</v>
+        <v>1.006200177147919</v>
       </c>
       <c r="C36">
-        <v>1.006200177147919</v>
+        <v>0.9435815033029815</v>
       </c>
       <c r="D36">
         <v>1.018287570739887</v>
       </c>
       <c r="E36">
-        <v>0.9392486011191048</v>
+        <v>0.9929042787199319</v>
       </c>
       <c r="F36">
-        <v>0.9803090507726271</v>
+        <v>0.9392503684986313</v>
       </c>
       <c r="G36">
-        <v>0.9435815033029815</v>
+        <v>0.980326214898268</v>
       </c>
       <c r="H36">
-        <v>0.9826392697433585</v>
+        <v>0.9833069043905329</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2171,25 +2150,25 @@
         <v>44253</v>
       </c>
       <c r="B37">
-        <v>0.9753778471581637</v>
+        <v>0.9881901387658695</v>
       </c>
       <c r="C37">
-        <v>0.9881901387658695</v>
+        <v>0.9245670415997144</v>
       </c>
       <c r="D37">
         <v>0.9977992035212743</v>
       </c>
       <c r="E37">
-        <v>0.9096722621902478</v>
+        <v>0.9753778471581637</v>
       </c>
       <c r="F37">
-        <v>0.9652980132450331</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="G37">
-        <v>0.9245670415997144</v>
+        <v>0.96527661005549</v>
       </c>
       <c r="H37">
-        <v>0.9627945285060173</v>
+        <v>0.9634308721802551</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2203,25 +2182,25 @@
         <v>44256</v>
       </c>
       <c r="B38">
-        <v>0.9898531185695026</v>
+        <v>1.013187678378112</v>
       </c>
       <c r="C38">
-        <v>1.013187678378112</v>
+        <v>0.9185859667916442</v>
       </c>
       <c r="D38">
         <v>1.027038356738629</v>
       </c>
       <c r="E38">
-        <v>0.9248601119104717</v>
+        <v>0.9898531185695026</v>
       </c>
       <c r="F38">
-        <v>0.9923178807947018</v>
+        <v>0.9248789218782901</v>
       </c>
       <c r="G38">
-        <v>0.9185859667916442</v>
+        <v>0.9923490835715486</v>
       </c>
       <c r="H38">
-        <v>0.9807210407428658</v>
+        <v>0.9818952706449962</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2235,25 +2214,25 @@
         <v>44257</v>
       </c>
       <c r="B39">
-        <v>0.9913432200383169</v>
+        <v>1.00846373388446</v>
       </c>
       <c r="C39">
-        <v>1.00846373388446</v>
+        <v>0.9093911801464023</v>
       </c>
       <c r="D39">
         <v>1.017291972332844</v>
       </c>
       <c r="E39">
-        <v>0.9304556354916067</v>
+        <v>0.9913432200383169</v>
       </c>
       <c r="F39">
-        <v>0.9938189845474612</v>
+        <v>0.9304590440092652</v>
       </c>
       <c r="G39">
-        <v>0.9093911801464023</v>
+        <v>0.9938624516562973</v>
       </c>
       <c r="H39">
-        <v>0.9780464685847218</v>
+        <v>0.978909525621003</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2267,25 +2246,25 @@
         <v>44258</v>
       </c>
       <c r="B40">
-        <v>0.9909884339743136</v>
+        <v>1.017517960830627</v>
       </c>
       <c r="C40">
-        <v>1.017517960830627</v>
+        <v>0.9295661489019816</v>
       </c>
       <c r="D40">
         <v>1.025885558583106</v>
       </c>
       <c r="E40">
-        <v>0.9288569144684253</v>
+        <v>0.9909884339743136</v>
       </c>
       <c r="F40">
-        <v>0.9909933774834438</v>
+        <v>0.9288797641608759</v>
       </c>
       <c r="G40">
-        <v>0.9295661489019816</v>
+        <v>0.9910038674962166</v>
       </c>
       <c r="H40">
-        <v>0.9834149587641556</v>
+        <v>0.9847464360627548</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2299,25 +2278,25 @@
         <v>44259</v>
       </c>
       <c r="B41">
-        <v>0.9664372383452778</v>
+        <v>0.993012498769806</v>
       </c>
       <c r="C41">
-        <v>0.993012498769806</v>
+        <v>0.9147473665416889</v>
       </c>
       <c r="D41">
         <v>0.9726472437644099</v>
       </c>
       <c r="E41">
-        <v>0.9176658673061551</v>
+        <v>0.9664372383452778</v>
       </c>
       <c r="F41">
-        <v>0.9306843267108168</v>
+        <v>0.9176668772373132</v>
       </c>
       <c r="G41">
-        <v>0.9147473665416889</v>
+        <v>0.9307213721203969</v>
       </c>
       <c r="H41">
-        <v>0.9512334053212075</v>
+        <v>0.9525678766435447</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2331,25 +2310,25 @@
         <v>44260</v>
       </c>
       <c r="B42">
-        <v>0.9673596821116867</v>
+        <v>0.9964570416297608</v>
       </c>
       <c r="C42">
-        <v>0.9964570416297608</v>
+        <v>0.921085520442778</v>
       </c>
       <c r="D42">
         <v>0.9789352337036261</v>
       </c>
       <c r="E42">
-        <v>0.9000799360511591</v>
+        <v>0.9673596821116867</v>
       </c>
       <c r="F42">
-        <v>0.9306843267108168</v>
+        <v>0.9000842282585808</v>
       </c>
       <c r="G42">
-        <v>0.921085520442778</v>
+        <v>0.9307213721203969</v>
       </c>
       <c r="H42">
-        <v>0.9515050068882397</v>
+        <v>0.9529660755066938</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2363,25 +2342,25 @@
         <v>44263</v>
       </c>
       <c r="B43">
-        <v>0.9476335769530972</v>
+        <v>0.9664403109930125</v>
       </c>
       <c r="C43">
-        <v>0.9664403109930125</v>
+        <v>0.9085877521871094</v>
       </c>
       <c r="D43">
         <v>0.9308321106686229</v>
       </c>
       <c r="E43">
-        <v>0.8441247002398082</v>
+        <v>0.9476335769530972</v>
       </c>
       <c r="F43">
-        <v>0.8805298013245032</v>
+        <v>0.8441250789639924</v>
       </c>
       <c r="G43">
-        <v>0.9085877521871094</v>
+        <v>0.8805279973095678</v>
       </c>
       <c r="H43">
-        <v>0.9156455222360091</v>
+        <v>0.9165856451443921</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2395,25 +2374,25 @@
         <v>44264</v>
       </c>
       <c r="B44">
-        <v>0.9384091392890087</v>
+        <v>0.9528589705737623</v>
       </c>
       <c r="C44">
-        <v>0.9528589705737623</v>
+        <v>0.8899303695768612</v>
       </c>
       <c r="D44">
         <v>0.8994969608048626</v>
       </c>
       <c r="E44">
-        <v>0.8025579536370904</v>
+        <v>0.9384091392890087</v>
       </c>
       <c r="F44">
-        <v>0.8595143487858721</v>
+        <v>0.8025373762897452</v>
       </c>
       <c r="G44">
-        <v>0.8899303695768612</v>
+        <v>0.8595089961325038</v>
       </c>
       <c r="H44">
-        <v>0.8933104664048122</v>
+        <v>0.8940290684689428</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2427,25 +2406,25 @@
         <v>44265</v>
       </c>
       <c r="B45">
-        <v>0.9427375292698503</v>
+        <v>0.9615195354787914</v>
       </c>
       <c r="C45">
-        <v>0.9615195354787914</v>
+        <v>0.8827887877164792</v>
       </c>
       <c r="D45">
         <v>0.919566128694194</v>
       </c>
       <c r="E45">
-        <v>0.7977617905675459</v>
+        <v>0.9427375292698503</v>
       </c>
       <c r="F45">
-        <v>0.8779690949227372</v>
+        <v>0.7977468940829648</v>
       </c>
       <c r="G45">
-        <v>0.8827887877164792</v>
+        <v>0.8780057171683202</v>
       </c>
       <c r="H45">
-        <v>0.900466612895642</v>
+        <v>0.9014089720702393</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2459,25 +2438,25 @@
         <v>44266</v>
       </c>
       <c r="B46">
-        <v>0.9554388703611723</v>
+        <v>0.9738214742643441</v>
       </c>
       <c r="C46">
-        <v>0.9738214742643441</v>
+        <v>0.8993929655418675</v>
       </c>
       <c r="D46">
         <v>0.9453992873611402</v>
       </c>
       <c r="E46">
-        <v>0.8105515587529977</v>
+        <v>0.9554388703611723</v>
       </c>
       <c r="F46">
-        <v>0.9073730684326711</v>
+        <v>0.8105390608549169</v>
       </c>
       <c r="G46">
-        <v>0.8993929655418675</v>
+        <v>0.9073482428115015</v>
       </c>
       <c r="H46">
-        <v>0.9188384915932445</v>
+        <v>0.9197520232605156</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2491,25 +2470,25 @@
         <v>44267</v>
       </c>
       <c r="B47">
-        <v>0.9564322713403818</v>
+        <v>0.9786438342682806</v>
       </c>
       <c r="C47">
-        <v>0.9786438342682806</v>
+        <v>0.897161221210498</v>
       </c>
       <c r="D47">
         <v>0.952368476210438</v>
       </c>
       <c r="E47">
-        <v>0.8049560351718624</v>
+        <v>0.9564322713403818</v>
       </c>
       <c r="F47">
-        <v>0.9195584988962472</v>
+        <v>0.8049589387239419</v>
       </c>
       <c r="G47">
-        <v>0.897161221210498</v>
+        <v>0.9195392634941987</v>
       </c>
       <c r="H47">
-        <v>0.9218080879421972</v>
+        <v>0.9229162163110968</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2523,25 +2502,25 @@
         <v>44270</v>
       </c>
       <c r="B48">
-        <v>0.9373447810969985</v>
+        <v>0.965849817931306</v>
       </c>
       <c r="C48">
-        <v>0.965849817931306</v>
+        <v>0.8831458668094982</v>
       </c>
       <c r="D48">
         <v>0.9092433452106476</v>
       </c>
       <c r="E48">
-        <v>0.8001598721023181</v>
+        <v>0.9373447810969985</v>
       </c>
       <c r="F48">
-        <v>0.8798233995584988</v>
+        <v>0.8001684565171615</v>
       </c>
       <c r="G48">
-        <v>0.8831458668094982</v>
+        <v>0.8798553892719018</v>
       </c>
       <c r="H48">
-        <v>0.8986644687217724</v>
+        <v>0.9000958066827247</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2555,25 +2534,25 @@
         <v>44271</v>
       </c>
       <c r="B49">
-        <v>0.9489108067835095</v>
+        <v>0.9761834465111702</v>
       </c>
       <c r="C49">
-        <v>0.9761834465111702</v>
+        <v>0.8879664345652561</v>
       </c>
       <c r="D49">
         <v>0.9177321316285894</v>
       </c>
       <c r="E49">
-        <v>0.7985611510791367</v>
+        <v>0.9489108067835095</v>
       </c>
       <c r="F49">
-        <v>0.8859161147902871</v>
+        <v>0.7985891766687724</v>
       </c>
       <c r="G49">
-        <v>0.8879664345652561</v>
+        <v>0.8859088616108963</v>
       </c>
       <c r="H49">
-        <v>0.9056226597242972</v>
+        <v>0.906989407572217</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2587,25 +2566,25 @@
         <v>44272</v>
       </c>
       <c r="B50">
-        <v>0.9671468104732847</v>
+        <v>0.9900600334612735</v>
       </c>
       <c r="C50">
-        <v>0.9900600334612735</v>
+        <v>0.8822531690769504</v>
       </c>
       <c r="D50">
         <v>0.928159714944456</v>
       </c>
       <c r="E50">
-        <v>0.8113509192645882</v>
+        <v>0.9671468104732847</v>
       </c>
       <c r="F50">
-        <v>0.900485651214128</v>
+        <v>0.8113813434407243</v>
       </c>
       <c r="G50">
-        <v>0.8822531690769504</v>
+        <v>0.9005380864301328</v>
       </c>
       <c r="H50">
-        <v>0.9166837710360891</v>
+        <v>0.9178418610943098</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2619,25 +2598,25 @@
         <v>44273</v>
       </c>
       <c r="B51">
-        <v>0.9723976442205351</v>
+        <v>0.9982285208148804</v>
       </c>
       <c r="C51">
-        <v>0.9982285208148804</v>
+        <v>0.879664345652562</v>
       </c>
       <c r="D51">
         <v>0.9440368895409768</v>
       </c>
       <c r="E51">
-        <v>0.8201438848920863</v>
+        <v>0.9723976442205351</v>
       </c>
       <c r="F51">
-        <v>0.9092273730684328</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="G51">
-        <v>0.879664345652562</v>
+        <v>0.9092819909197914</v>
       </c>
       <c r="H51">
-        <v>0.9243765254164966</v>
+        <v>0.9256805793796182</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2651,25 +2630,25 @@
         <v>44274</v>
       </c>
       <c r="B52">
-        <v>0.9569999290427872</v>
+        <v>0.9790374963094184</v>
       </c>
       <c r="C52">
-        <v>0.9790374963094184</v>
+        <v>0.867702196036422</v>
       </c>
       <c r="D52">
         <v>0.9142213372458603</v>
       </c>
       <c r="E52">
-        <v>0.8249400479616308</v>
+        <v>0.9569999290427872</v>
       </c>
       <c r="F52">
-        <v>0.8788520971302427</v>
+        <v>0.8249631501368709</v>
       </c>
       <c r="G52">
-        <v>0.867702196036422</v>
+        <v>0.8788464772154027</v>
       </c>
       <c r="H52">
-        <v>0.9068240288733865</v>
+        <v>0.9079285295757782</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2683,25 +2662,25 @@
         <v>44277</v>
       </c>
       <c r="B53">
-        <v>0.966862981622082</v>
+        <v>0.9923235901978151</v>
       </c>
       <c r="C53">
-        <v>0.9923235901978151</v>
+        <v>0.878057489733976</v>
       </c>
       <c r="D53">
         <v>0.9222385244183608</v>
       </c>
       <c r="E53">
-        <v>0.8313349320543566</v>
+        <v>0.966862981622082</v>
       </c>
       <c r="F53">
-        <v>0.8887417218543044</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="G53">
-        <v>0.878057489733976</v>
+        <v>0.8887674457709769</v>
       </c>
       <c r="H53">
-        <v>0.9163889612841565</v>
+        <v>0.9176655473210964</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2715,25 +2694,25 @@
         <v>44278</v>
       </c>
       <c r="B54">
-        <v>0.9589867310012062</v>
+        <v>0.9781517567168586</v>
       </c>
       <c r="C54">
-        <v>0.9781517567168586</v>
+        <v>0.8826102481699696</v>
       </c>
       <c r="D54">
         <v>0.9110773422762523</v>
       </c>
       <c r="E54">
-        <v>0.8257394084732214</v>
+        <v>0.9589867310012062</v>
       </c>
       <c r="F54">
-        <v>0.8671081677704193</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="G54">
-        <v>0.8826102481699696</v>
+        <v>0.8671599125609551</v>
       </c>
       <c r="H54">
-        <v>0.9070542518250621</v>
+        <v>0.9080222720676016</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2747,25 +2726,25 @@
         <v>44279</v>
       </c>
       <c r="B55">
-        <v>0.9579933300219968</v>
+        <v>0.9668339730341502</v>
       </c>
       <c r="C55">
-        <v>0.9668339730341502</v>
+        <v>0.8821638993036957</v>
       </c>
       <c r="D55">
         <v>0.900020959966464</v>
       </c>
       <c r="E55">
-        <v>0.812150279776179</v>
+        <v>0.9579933300219968</v>
       </c>
       <c r="F55">
-        <v>0.841766004415011</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="G55">
-        <v>0.8821638993036957</v>
+        <v>0.8417689591390618</v>
       </c>
       <c r="H55">
-        <v>0.8970399814770476</v>
+        <v>0.8974855623745739</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2779,25 +2758,25 @@
         <v>44280</v>
       </c>
       <c r="B56">
-        <v>0.9538068544667566</v>
+        <v>0.9638815077256176</v>
       </c>
       <c r="C56">
-        <v>0.9638815077256176</v>
+        <v>0.8777896804142117</v>
       </c>
       <c r="D56">
         <v>0.9046845525047159</v>
       </c>
       <c r="E56">
-        <v>0.815347721822542</v>
+        <v>0.9538068544667566</v>
       </c>
       <c r="F56">
-        <v>0.8481236203090509</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G56">
-        <v>0.8777896804142117</v>
+        <v>0.8481587354968891</v>
       </c>
       <c r="H56">
-        <v>0.8974696609350078</v>
+        <v>0.8979759340619998</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2811,25 +2790,25 @@
         <v>44281</v>
       </c>
       <c r="B57">
-        <v>0.974171574540552</v>
+        <v>0.9840566873339238</v>
       </c>
       <c r="C57">
-        <v>0.9840566873339238</v>
+        <v>0.8844849134083199</v>
       </c>
       <c r="D57">
         <v>0.9360197023684762</v>
       </c>
       <c r="E57">
-        <v>0.8273381294964028</v>
+        <v>0.974171574540552</v>
       </c>
       <c r="F57">
-        <v>0.8877704194260486</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="G57">
-        <v>0.8844849134083199</v>
+        <v>0.8877585337144779</v>
       </c>
       <c r="H57">
-        <v>0.91958577783151</v>
+        <v>0.9200773416764008</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2843,25 +2822,25 @@
         <v>44284</v>
       </c>
       <c r="B58">
-        <v>0.9846022848222521</v>
+        <v>0.9809073910048224</v>
       </c>
       <c r="C58">
-        <v>0.9809073910048224</v>
+        <v>0.8821638993036957</v>
       </c>
       <c r="D58">
         <v>0.9315657094948648</v>
       </c>
       <c r="E58">
-        <v>0.8409272581934453</v>
+        <v>0.9846022848222521</v>
       </c>
       <c r="F58">
-        <v>0.880794701986755</v>
+        <v>0.8409138766056011</v>
       </c>
       <c r="G58">
-        <v>0.8821638993036957</v>
+        <v>0.8807802253236927</v>
       </c>
       <c r="H58">
-        <v>0.9209525864367311</v>
+        <v>0.9207636630082237</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2875,25 +2854,25 @@
         <v>44285</v>
       </c>
       <c r="B59">
-        <v>0.985524728588661</v>
+        <v>0.982482039169373</v>
       </c>
       <c r="C59">
-        <v>0.982482039169373</v>
+        <v>0.8810926620246384</v>
       </c>
       <c r="D59">
         <v>0.9455564871096206</v>
       </c>
       <c r="E59">
-        <v>0.8577138289368506</v>
+        <v>0.985524728588661</v>
       </c>
       <c r="F59">
-        <v>0.9003090507726269</v>
+        <v>0.857706885660139</v>
       </c>
       <c r="G59">
-        <v>0.8810926620246384</v>
+        <v>0.9002858584160081</v>
       </c>
       <c r="H59">
-        <v>0.9294558802751797</v>
+        <v>0.9292992254592157</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2907,25 +2886,25 @@
         <v>44286</v>
       </c>
       <c r="B60">
-        <v>0.9941105513375434</v>
+        <v>0.9785454187579962</v>
       </c>
       <c r="C60">
-        <v>0.9785454187579962</v>
+        <v>0.8690412426352436</v>
       </c>
       <c r="D60">
         <v>0.9425172919723328</v>
       </c>
       <c r="E60">
-        <v>0.8257394084732214</v>
+        <v>0.9941105513375434</v>
       </c>
       <c r="F60">
-        <v>0.8924503311258277</v>
+        <v>0.8257527900610655</v>
       </c>
       <c r="G60">
-        <v>0.8690412426352436</v>
+        <v>0.8924667899781403</v>
       </c>
       <c r="H60">
-        <v>0.9221920288108186</v>
+        <v>0.9214182482478647</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2939,25 +2918,25 @@
         <v>44287</v>
       </c>
       <c r="B61">
-        <v>1.003334989001632</v>
+        <v>0.9933077453006595</v>
       </c>
       <c r="C61">
-        <v>0.9933077453006595</v>
+        <v>0.8763613640421353</v>
       </c>
       <c r="D61">
         <v>0.961748061203102</v>
       </c>
       <c r="E61">
-        <v>0.8313349320543566</v>
+        <v>1.003334989001632</v>
       </c>
       <c r="F61">
-        <v>0.90719646799117</v>
+        <v>0.8313329121920404</v>
       </c>
       <c r="G61">
-        <v>0.8763613640421353</v>
+        <v>0.9071800908020851</v>
       </c>
       <c r="H61">
-        <v>0.9342466864491951</v>
+        <v>0.9337425647064361</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2971,25 +2950,25 @@
         <v>44288</v>
       </c>
       <c r="B62">
-        <v>1.010501667494501</v>
+        <v>1.005609684086212</v>
       </c>
       <c r="C62">
-        <v>1.005609684086212</v>
+        <v>0.8762720942688805</v>
       </c>
       <c r="D62">
         <v>0.9739572416684132</v>
       </c>
       <c r="E62">
-        <v>0.8345323741007195</v>
+        <v>1.010501667494501</v>
       </c>
       <c r="F62">
-        <v>0.9129359823399559</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="G62">
-        <v>0.8762720942688805</v>
+        <v>0.9129813351269548</v>
       </c>
       <c r="H62">
-        <v>0.9412943020519479</v>
+        <v>0.9410582668670403</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -3003,25 +2982,25 @@
         <v>44292</v>
       </c>
       <c r="B63">
-        <v>1.00411551834244</v>
+        <v>1.000098415510284</v>
       </c>
       <c r="C63">
-        <v>1.000098415510284</v>
+        <v>0.8752008569898232</v>
       </c>
       <c r="D63">
         <v>0.9671452525675958</v>
       </c>
       <c r="E63">
-        <v>0.8425259792166268</v>
+        <v>1.00411551834244</v>
       </c>
       <c r="F63">
-        <v>0.9200883002207505</v>
+        <v>0.8425457991156033</v>
       </c>
       <c r="G63">
-        <v>0.8752008569898232</v>
+        <v>0.9201277955271566</v>
       </c>
       <c r="H63">
-        <v>0.9399391869726297</v>
+        <v>0.9397472291118294</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3035,25 +3014,25 @@
         <v>44293</v>
       </c>
       <c r="B64">
-        <v>1.000709572128007</v>
+        <v>0.9961617950989076</v>
       </c>
       <c r="C64">
-        <v>0.9961617950989076</v>
+        <v>0.8698446705945366</v>
       </c>
       <c r="D64">
         <v>0.95703206874869</v>
       </c>
       <c r="E64">
-        <v>0.8377298161470823</v>
+        <v>1.000709572128007</v>
       </c>
       <c r="F64">
-        <v>0.9061368653421633</v>
+        <v>0.8377553169088229</v>
       </c>
       <c r="G64">
-        <v>0.8698446705945366</v>
+        <v>0.9061711787455861</v>
       </c>
       <c r="H64">
-        <v>0.9330293002527429</v>
+        <v>0.9328108835260623</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3067,25 +3046,25 @@
         <v>44294</v>
       </c>
       <c r="B65">
-        <v>1.003973603916838</v>
+        <v>0.9957681330577699</v>
       </c>
       <c r="C65">
-        <v>0.9957681330577699</v>
+        <v>0.8734154615247277</v>
       </c>
       <c r="D65">
         <v>0.9631628589394257</v>
       </c>
       <c r="E65">
-        <v>0.8353317346123101</v>
+        <v>1.003973603916838</v>
       </c>
       <c r="F65">
-        <v>0.8996026490066225</v>
+        <v>0.8353337544746262</v>
       </c>
       <c r="G65">
-        <v>0.8734154615247277</v>
+        <v>0.8996132503783421</v>
       </c>
       <c r="H65">
-        <v>0.9340449893014673</v>
+        <v>0.9336366089436192</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3099,25 +3078,25 @@
         <v>44295</v>
       </c>
       <c r="B66">
-        <v>0.9977293691903781</v>
+        <v>0.9892727093789982</v>
       </c>
       <c r="C66">
-        <v>0.9892727093789982</v>
+        <v>0.8628816282806642</v>
       </c>
       <c r="D66">
         <v>0.9470760846782644</v>
       </c>
       <c r="E66">
-        <v>0.8401278976818545</v>
+        <v>0.9977293691903781</v>
       </c>
       <c r="F66">
-        <v>0.8813245033112582</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="G66">
-        <v>0.8628816282806642</v>
+        <v>0.8813687573566504</v>
       </c>
       <c r="H66">
-        <v>0.9250021015716449</v>
+        <v>0.9245853575378175</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3131,25 +3110,25 @@
         <v>44298</v>
       </c>
       <c r="B67">
-        <v>0.9810544241822181</v>
+        <v>0.9712626709969491</v>
       </c>
       <c r="C67">
-        <v>0.9712626709969491</v>
+        <v>0.8495804320657024</v>
       </c>
       <c r="D67">
         <v>0.9260113183818905</v>
       </c>
       <c r="E67">
-        <v>0.8145483613109512</v>
+        <v>0.9810544241822181</v>
       </c>
       <c r="F67">
-        <v>0.8597792494481237</v>
+        <v>0.8145399031375026</v>
       </c>
       <c r="G67">
-        <v>0.8495804320657024</v>
+        <v>0.8597612241466285</v>
       </c>
       <c r="H67">
-        <v>0.9056887555860808</v>
+        <v>0.9051951954055757</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3163,25 +3142,25 @@
         <v>44299</v>
       </c>
       <c r="B68">
-        <v>0.9736748740509473</v>
+        <v>0.957189253026277</v>
       </c>
       <c r="C68">
-        <v>0.957189253026277</v>
+        <v>0.8466345295482949</v>
       </c>
       <c r="D68">
         <v>0.9356005030391952</v>
       </c>
       <c r="E68">
-        <v>0.812150279776179</v>
+        <v>0.9736748740509473</v>
       </c>
       <c r="F68">
-        <v>0.8648123620309052</v>
+        <v>0.8121709833649189</v>
       </c>
       <c r="G68">
-        <v>0.8466345295482949</v>
+        <v>0.8648057844291239</v>
       </c>
       <c r="H68">
-        <v>0.9039730390752769</v>
+        <v>0.9031508769220872</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3195,25 +3174,25 @@
         <v>44300</v>
       </c>
       <c r="B69">
-        <v>0.9833250549918399</v>
+        <v>0.9792343273299872</v>
       </c>
       <c r="C69">
-        <v>0.9792343273299872</v>
+        <v>0.8548473486877343</v>
       </c>
       <c r="D69">
         <v>0.9597568643890169</v>
       </c>
       <c r="E69">
-        <v>0.8233413269384493</v>
+        <v>0.9833250549918399</v>
       </c>
       <c r="F69">
-        <v>0.8929801324503313</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="G69">
-        <v>0.8548473486877343</v>
+        <v>0.8929712460063898</v>
       </c>
       <c r="H69">
-        <v>0.9211768541871467</v>
+        <v>0.9209694699407257</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3227,25 +3206,25 @@
         <v>44301</v>
       </c>
       <c r="B70">
-        <v>0.9786418789469949</v>
+        <v>0.9749040448774727</v>
       </c>
       <c r="C70">
-        <v>0.9749040448774727</v>
+        <v>0.8454740224959828</v>
       </c>
       <c r="D70">
         <v>0.9549884720184447</v>
       </c>
       <c r="E70">
-        <v>0.8217426059152678</v>
+        <v>0.9786418789469949</v>
       </c>
       <c r="F70">
-        <v>0.8935099337748343</v>
+        <v>0.8217519477784797</v>
       </c>
       <c r="G70">
-        <v>0.8454740224959828</v>
+        <v>0.8935597780393475</v>
       </c>
       <c r="H70">
-        <v>0.9170706612526216</v>
+        <v>0.9168926474683041</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3259,25 +3238,25 @@
         <v>44302</v>
       </c>
       <c r="B71">
-        <v>0.9831831405662386</v>
+        <v>0.9870091526424564</v>
       </c>
       <c r="C71">
-        <v>0.9870091526424564</v>
+        <v>0.8514550973040528</v>
       </c>
       <c r="D71">
         <v>0.9509012785579543</v>
       </c>
       <c r="E71">
-        <v>0.8225419664268584</v>
+        <v>0.9831831405662386</v>
       </c>
       <c r="F71">
-        <v>0.8855629139072847</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G71">
-        <v>0.8514550973040528</v>
+        <v>0.8855725575920631</v>
       </c>
       <c r="H71">
-        <v>0.9188022533669364</v>
+        <v>0.9189949437148365</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3291,25 +3270,25 @@
         <v>44305</v>
       </c>
       <c r="B72">
-        <v>0.9971617114879727</v>
+        <v>1.009743135518158</v>
       </c>
       <c r="C72">
-        <v>1.009743135518158</v>
+        <v>0.8684163542224602</v>
       </c>
       <c r="D72">
         <v>0.9928212114860616</v>
       </c>
       <c r="E72">
-        <v>0.8337330135891287</v>
+        <v>0.9971617114879727</v>
       </c>
       <c r="F72">
-        <v>0.9321854304635762</v>
+        <v>0.8337544746262372</v>
       </c>
       <c r="G72">
-        <v>0.8684163542224602</v>
+        <v>0.9322347402051454</v>
       </c>
       <c r="H72">
-        <v>0.9446082746638053</v>
+        <v>0.9452479614821162</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3323,25 +3302,25 @@
         <v>44306</v>
       </c>
       <c r="B73">
-        <v>0.9985098985311857</v>
+        <v>1.004330282452514</v>
       </c>
       <c r="C73">
-        <v>1.004330282452514</v>
+        <v>0.8606498839492946</v>
       </c>
       <c r="D73">
         <v>0.9904108153426954</v>
       </c>
       <c r="E73">
-        <v>0.8297362110311751</v>
+        <v>0.9985098985311857</v>
       </c>
       <c r="F73">
-        <v>0.9313024282560706</v>
+        <v>0.8297536323436513</v>
       </c>
       <c r="G73">
-        <v>0.8606498839492946</v>
+        <v>0.9313099041533546</v>
       </c>
       <c r="H73">
-        <v>0.9416869636281344</v>
+        <v>0.9419817174056649</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3355,25 +3334,25 @@
         <v>44307</v>
       </c>
       <c r="B74">
-        <v>0.9986518129567871</v>
+        <v>1.00088573959256</v>
       </c>
       <c r="C74">
-        <v>1.00088573959256</v>
+        <v>0.8577039814318871</v>
       </c>
       <c r="D74">
         <v>0.998061203102075</v>
       </c>
       <c r="E74">
-        <v>0.8225419664268584</v>
+        <v>0.9986518129567871</v>
       </c>
       <c r="F74">
-        <v>0.9275055187637968</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G74">
-        <v>0.8577039814318871</v>
+        <v>0.9275264839414831</v>
       </c>
       <c r="H74">
-        <v>0.9406381841440379</v>
+        <v>0.9407529684438517</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3387,25 +3366,25 @@
         <v>44308</v>
       </c>
       <c r="B75">
-        <v>0.9953877811679558</v>
+        <v>1.000787324082275</v>
       </c>
       <c r="C75">
-        <v>1.000787324082275</v>
+        <v>0.8603820746295303</v>
       </c>
       <c r="D75">
         <v>1.006183190106896</v>
       </c>
       <c r="E75">
-        <v>0.8225419664268584</v>
+        <v>0.9953877811679558</v>
       </c>
       <c r="F75">
-        <v>0.9298013245033112</v>
+        <v>0.8225415877026743</v>
       </c>
       <c r="G75">
-        <v>0.8603820746295303</v>
+        <v>0.9297965360686061</v>
       </c>
       <c r="H75">
-        <v>0.9423410977012666</v>
+        <v>0.9426102997731493</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3419,25 +3398,25 @@
         <v>44309</v>
       </c>
       <c r="B76">
-        <v>1.003973603916838</v>
+        <v>1.00177147918512</v>
       </c>
       <c r="C76">
-        <v>1.00177147918512</v>
+        <v>0.8616318514550972</v>
       </c>
       <c r="D76">
         <v>1.03143994969608</v>
       </c>
       <c r="E76">
-        <v>0.8201438848920863</v>
+        <v>1.003973603916838</v>
       </c>
       <c r="F76">
-        <v>0.944459161147903</v>
+        <v>0.8201726679300906</v>
       </c>
       <c r="G76">
-        <v>0.8616318514550972</v>
+        <v>0.9445098368925509</v>
       </c>
       <c r="H76">
-        <v>0.9512836672246147</v>
+        <v>0.9511854798054264</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3451,25 +3430,25 @@
         <v>44312</v>
       </c>
       <c r="B77">
-        <v>0.9970197970623714</v>
+        <v>0.99488239346521</v>
       </c>
       <c r="C77">
-        <v>0.99488239346521</v>
+        <v>0.8452954829494732</v>
       </c>
       <c r="D77">
         <v>1.023003563194299</v>
       </c>
       <c r="E77">
-        <v>0.8193445243804955</v>
+        <v>0.9970197970623714</v>
       </c>
       <c r="F77">
-        <v>0.9284768211920531</v>
+        <v>0.819330385344283</v>
       </c>
       <c r="G77">
-        <v>0.8452954829494732</v>
+        <v>0.9285353959979822</v>
       </c>
       <c r="H77">
-        <v>0.9422045553494188</v>
+        <v>0.9421043505350183</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3483,25 +3462,25 @@
         <v>44313</v>
       </c>
       <c r="B78">
-        <v>1.004754133257646</v>
+        <v>0.996260210609192</v>
       </c>
       <c r="C78">
-        <v>0.996260210609192</v>
+        <v>0.8435993572576325</v>
       </c>
       <c r="D78">
         <v>1.030077551875917</v>
       </c>
       <c r="E78">
-        <v>0.8089528377298162</v>
+        <v>1.004754133257646</v>
       </c>
       <c r="F78">
-        <v>0.9256512141280353</v>
+        <v>0.8089597810065277</v>
       </c>
       <c r="G78">
-        <v>0.8435993572576325</v>
+        <v>0.9256768118379014</v>
       </c>
       <c r="H78">
-        <v>0.9431358799854138</v>
+        <v>0.9427160650009778</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3515,25 +3494,25 @@
         <v>44314</v>
       </c>
       <c r="B79">
-        <v>1.022706308096218</v>
+        <v>1.004723944493652</v>
       </c>
       <c r="C79">
-        <v>1.004723944493652</v>
+        <v>0.8463667202285307</v>
       </c>
       <c r="D79">
         <v>1.055439111297422</v>
       </c>
       <c r="E79">
-        <v>0.815347721822542</v>
+        <v>1.022706308096218</v>
       </c>
       <c r="F79">
-        <v>0.9493156732891832</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G79">
-        <v>0.8463667202285307</v>
+        <v>0.9493021691609215</v>
       </c>
       <c r="H79">
-        <v>0.9579921928538142</v>
+        <v>0.9570883222403199</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3547,25 +3526,25 @@
         <v>44315</v>
       </c>
       <c r="B80">
-        <v>1.038316894912368</v>
+        <v>1.00600334612735</v>
       </c>
       <c r="C80">
-        <v>1.00600334612735</v>
+        <v>0.8640421353329761</v>
       </c>
       <c r="D80">
         <v>1.057115908614546</v>
       </c>
       <c r="E80">
-        <v>0.815347721822542</v>
+        <v>1.038316894912368</v>
       </c>
       <c r="F80">
-        <v>0.9519646799116999</v>
+        <v>0.8153295430616972</v>
       </c>
       <c r="G80">
-        <v>0.8640421353329761</v>
+        <v>0.9519926013115857</v>
       </c>
       <c r="H80">
-        <v>0.964690243184568</v>
+        <v>0.9630760271411732</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3579,25 +3558,25 @@
         <v>44316</v>
       </c>
       <c r="B81">
-        <v>1.023203008585823</v>
+        <v>1.000492077551422</v>
       </c>
       <c r="C81">
-        <v>1.000492077551422</v>
+        <v>0.8538653811819318</v>
       </c>
       <c r="D81">
         <v>1.074827080276672</v>
       </c>
       <c r="E81">
-        <v>0.7889688249400479</v>
+        <v>1.023203008585823</v>
       </c>
       <c r="F81">
-        <v>0.9720971302428256</v>
+        <v>0.7889555695935986</v>
       </c>
       <c r="G81">
-        <v>0.8538653811819318</v>
+        <v>0.9720867664368589</v>
       </c>
       <c r="H81">
-        <v>0.961919529859933</v>
+        <v>0.9607804404353506</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3611,25 +3590,25 @@
         <v>44322</v>
       </c>
       <c r="B82">
-        <v>1.020222805648194</v>
+        <v>0.9900600334612735</v>
       </c>
       <c r="C82">
-        <v>0.9900600334612735</v>
+        <v>0.8450276736297089</v>
       </c>
       <c r="D82">
         <v>1.046426325717879</v>
       </c>
       <c r="E82">
-        <v>0.7993605115907274</v>
+        <v>1.020222805648194</v>
       </c>
       <c r="F82">
-        <v>0.9636203090507725</v>
+        <v>0.7993788165929669</v>
       </c>
       <c r="G82">
-        <v>0.8450276736297089</v>
+        <v>0.9636791659660334</v>
       </c>
       <c r="H82">
-        <v>0.9530401054330868</v>
+        <v>0.951543541111366</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3643,25 +3622,25 @@
         <v>44323</v>
       </c>
       <c r="B83">
-        <v>0.996452139359966</v>
+        <v>0.9718531640586557</v>
       </c>
       <c r="C83">
-        <v>0.9718531640586557</v>
+        <v>0.8331547937868238</v>
       </c>
       <c r="D83">
         <v>1.008593586250262</v>
       </c>
       <c r="E83">
-        <v>0.7881694644284573</v>
+        <v>0.996452139359966</v>
       </c>
       <c r="F83">
-        <v>0.9365121412803532</v>
+        <v>0.7881659296694041</v>
       </c>
       <c r="G83">
-        <v>0.8331547937868238</v>
+        <v>0.9365226164452665</v>
       </c>
       <c r="H83">
-        <v>0.9304625796551891</v>
+        <v>0.9292336719510026</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3675,25 +3654,25 @@
         <v>44326</v>
       </c>
       <c r="B84">
-        <v>0.9972326687007734</v>
+        <v>0.9788406652888496</v>
       </c>
       <c r="C84">
-        <v>0.9788406652888496</v>
+        <v>0.830298161042671</v>
       </c>
       <c r="D84">
         <v>1.013519178369314</v>
       </c>
       <c r="E84">
-        <v>0.7777777777777777</v>
+        <v>0.9972326687007734</v>
       </c>
       <c r="F84">
-        <v>0.9456070640176599</v>
+        <v>0.7777953253316489</v>
       </c>
       <c r="G84">
-        <v>0.830298161042671</v>
+        <v>0.9456028249537582</v>
       </c>
       <c r="H84">
-        <v>0.9320289196330613</v>
+        <v>0.9311113157359605</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3707,25 +3686,25 @@
         <v>44327</v>
       </c>
       <c r="B85">
-        <v>0.9973036259135741</v>
+        <v>0.9784470032477118</v>
       </c>
       <c r="C85">
-        <v>0.9784470032477118</v>
+        <v>0.8391358685948936</v>
       </c>
       <c r="D85">
         <v>1.01168518130371</v>
       </c>
       <c r="E85">
-        <v>0.7961630695443646</v>
+        <v>0.9973036259135741</v>
       </c>
       <c r="F85">
-        <v>0.9343046357615894</v>
+        <v>0.7961676142345757</v>
       </c>
       <c r="G85">
-        <v>0.8391358685948936</v>
+        <v>0.9343366403228518</v>
       </c>
       <c r="H85">
-        <v>0.9340053480157406</v>
+        <v>0.9330679992701687</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3739,25 +3718,25 @@
         <v>44328</v>
       </c>
       <c r="B86">
-        <v>0.9976584119775774</v>
+        <v>0.9866154906013187</v>
       </c>
       <c r="C86">
-        <v>0.9866154906013187</v>
+        <v>0.8375290126763077</v>
       </c>
       <c r="D86">
         <v>1.024470760846783</v>
       </c>
       <c r="E86">
-        <v>0.7929656274980016</v>
+        <v>0.9976584119775774</v>
       </c>
       <c r="F86">
-        <v>0.9346578366445915</v>
+        <v>0.7929564118761845</v>
       </c>
       <c r="G86">
-        <v>0.8375290126763077</v>
+        <v>0.9346729443416848</v>
       </c>
       <c r="H86">
-        <v>0.9371910296779049</v>
+        <v>0.9366397674203835</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3771,25 +3750,25 @@
         <v>44329</v>
       </c>
       <c r="B87">
-        <v>0.9816930390974242</v>
+        <v>0.9680149591575633</v>
       </c>
       <c r="C87">
-        <v>0.9680149591575633</v>
+        <v>0.8324406356007855</v>
       </c>
       <c r="D87">
         <v>1.018759169985328</v>
       </c>
       <c r="E87">
-        <v>0.7905675459632294</v>
+        <v>0.9816930390974242</v>
       </c>
       <c r="F87">
-        <v>0.9138189845474612</v>
+        <v>0.7905874921036008</v>
       </c>
       <c r="G87">
-        <v>0.8324406356007855</v>
+        <v>0.9138220951740373</v>
       </c>
       <c r="H87">
-        <v>0.9258167606069063</v>
+        <v>0.9251363151249554</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3803,25 +3782,25 @@
         <v>44330</v>
       </c>
       <c r="B88">
-        <v>0.9894983325054992</v>
+        <v>0.9839582718236394</v>
       </c>
       <c r="C88">
-        <v>0.9839582718236394</v>
+        <v>0.8849312622745937</v>
       </c>
       <c r="D88">
         <v>1.051247118004611</v>
       </c>
       <c r="E88">
-        <v>0.818545163868905</v>
+        <v>0.9894983325054992</v>
       </c>
       <c r="F88">
-        <v>0.9331567328918321</v>
+        <v>0.8185407454200885</v>
       </c>
       <c r="G88">
-        <v>0.8849312622745937</v>
+        <v>0.9331595762569364</v>
       </c>
       <c r="H88">
-        <v>0.9512378047308676</v>
+        <v>0.9509605654342178</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3835,25 +3814,25 @@
         <v>44333</v>
       </c>
       <c r="B89">
-        <v>0.9970907542751721</v>
+        <v>0.9970475346914672</v>
       </c>
       <c r="C89">
-        <v>0.9970475346914672</v>
+        <v>0.8719871451526513</v>
       </c>
       <c r="D89">
         <v>1.08190106895829</v>
       </c>
       <c r="E89">
-        <v>0.8233413269384493</v>
+        <v>0.9970907542751721</v>
       </c>
       <c r="F89">
-        <v>0.9703311258278146</v>
+        <v>0.8233312276268688</v>
       </c>
       <c r="G89">
-        <v>0.8719871451526513</v>
+        <v>0.9703211703379855</v>
       </c>
       <c r="H89">
-        <v>0.9652044345382498</v>
+        <v>0.965199265338853</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3867,25 +3846,25 @@
         <v>44334</v>
       </c>
       <c r="B90">
-        <v>1.000922443766409</v>
+        <v>0.9993110914280091</v>
       </c>
       <c r="C90">
-        <v>0.9993110914280091</v>
+        <v>0.8749330476700589</v>
       </c>
       <c r="D90">
         <v>1.073097883043387</v>
       </c>
       <c r="E90">
-        <v>0.8401278976818545</v>
+        <v>1.000922443766409</v>
       </c>
       <c r="F90">
-        <v>0.9676821192052981</v>
+        <v>0.8401242366814067</v>
       </c>
       <c r="G90">
-        <v>0.8749330476700589</v>
+        <v>0.9677148141920296</v>
       </c>
       <c r="H90">
-        <v>0.9671121887597423</v>
+        <v>0.9670359762407648</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3899,25 +3878,25 @@
         <v>44335</v>
       </c>
       <c r="B91">
-        <v>0.9905626906975094</v>
+        <v>1.003936620411377</v>
       </c>
       <c r="C91">
-        <v>1.003936620411377</v>
+        <v>0.8716300660596322</v>
       </c>
       <c r="D91">
         <v>1.083787465940054</v>
       </c>
       <c r="E91">
-        <v>0.841726618705036</v>
+        <v>0.9905626906975094</v>
       </c>
       <c r="F91">
-        <v>0.9913465783664459</v>
+        <v>0.8417561591914087</v>
       </c>
       <c r="G91">
-        <v>0.8716300660596322</v>
+        <v>0.9913401715150496</v>
       </c>
       <c r="H91">
-        <v>0.9711660138588862</v>
+        <v>0.9718381803898262</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3931,25 +3910,25 @@
         <v>44336</v>
       </c>
       <c r="B92">
-        <v>1.010856453558504</v>
+        <v>1.006790670209625</v>
       </c>
       <c r="C92">
-        <v>1.006790670209625</v>
+        <v>0.8828780574897339</v>
       </c>
       <c r="D92">
         <v>1.091018654370153</v>
       </c>
       <c r="E92">
-        <v>0.8433253397282174</v>
+        <v>1.010856453558504</v>
       </c>
       <c r="F92">
-        <v>0.9901103752759381</v>
+        <v>0.8433354390397979</v>
       </c>
       <c r="G92">
-        <v>0.8828780574897339</v>
+        <v>0.9901631074491339</v>
       </c>
       <c r="H92">
-        <v>0.9788406879912587</v>
+        <v>0.9786468235465311</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3963,25 +3942,25 @@
         <v>44337</v>
       </c>
       <c r="B93">
-        <v>1.010004967004896</v>
+        <v>1.004822360003937</v>
       </c>
       <c r="C93">
-        <v>1.004822360003937</v>
+        <v>0.8683270844492055</v>
       </c>
       <c r="D93">
         <v>1.080486271221966</v>
       </c>
       <c r="E93">
-        <v>0.8273381294964028</v>
+        <v>1.010004967004896</v>
       </c>
       <c r="F93">
-        <v>0.9891390728476821</v>
+        <v>0.8273320699094547</v>
       </c>
       <c r="G93">
-        <v>0.8683270844492055</v>
+        <v>0.989154195392635</v>
       </c>
       <c r="H93">
-        <v>0.9715422446649564</v>
+        <v>0.971284473758609</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3995,25 +3974,25 @@
         <v>44340</v>
       </c>
       <c r="B94">
-        <v>1.009437309302491</v>
+        <v>1.004035035921661</v>
       </c>
       <c r="C94">
-        <v>1.004035035921661</v>
+        <v>0.8805570433851098</v>
       </c>
       <c r="D94">
         <v>1.089237057220708</v>
       </c>
       <c r="E94">
-        <v>0.8345323741007195</v>
+        <v>1.009437309302491</v>
       </c>
       <c r="F94">
-        <v>0.9940838852097129</v>
+        <v>0.8345441145504316</v>
       </c>
       <c r="G94">
-        <v>0.8805570433851098</v>
+        <v>0.994114679670422</v>
       </c>
       <c r="H94">
-        <v>0.9767161240972203</v>
+        <v>0.9764523906647421</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4027,25 +4006,25 @@
         <v>44341</v>
       </c>
       <c r="B95">
-        <v>1.015326757964947</v>
+        <v>1.016829052258636</v>
       </c>
       <c r="C95">
-        <v>1.016829052258636</v>
+        <v>0.9159078735940011</v>
       </c>
       <c r="D95">
         <v>1.120729406832949</v>
       </c>
       <c r="E95">
-        <v>0.8617106314948043</v>
+        <v>1.015326757964947</v>
       </c>
       <c r="F95">
-        <v>1.008300220750552</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="G95">
-        <v>0.9159078735940011</v>
+        <v>1.008323524466117</v>
       </c>
       <c r="H95">
-        <v>0.9976233996742782</v>
+        <v>0.9977015744134855</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4059,25 +4038,25 @@
         <v>44342</v>
       </c>
       <c r="B96">
-        <v>1.026892783651458</v>
+        <v>1.019683102056884</v>
       </c>
       <c r="C96">
-        <v>1.019683102056884</v>
+        <v>0.9144795572219245</v>
       </c>
       <c r="D96">
         <v>1.109673024523161</v>
       </c>
       <c r="E96">
-        <v>0.8617106314948043</v>
+        <v>1.026892783651458</v>
       </c>
       <c r="F96">
-        <v>0.9964679911699779</v>
+        <v>0.8617077279427248</v>
       </c>
       <c r="G96">
-        <v>0.9144795572219245</v>
+        <v>0.9964688078022532</v>
       </c>
       <c r="H96">
-        <v>0.9961643539264624</v>
+        <v>0.9958035568087631</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4091,25 +4070,25 @@
         <v>44343</v>
       </c>
       <c r="B97">
-        <v>1.04271624210601</v>
+        <v>1.028146835941344</v>
       </c>
       <c r="C97">
-        <v>1.028146835941344</v>
+        <v>0.9158186038207462</v>
       </c>
       <c r="D97">
         <v>1.117899811360302</v>
       </c>
       <c r="E97">
-        <v>0.8689048760991207</v>
+        <v>1.04271624210601</v>
       </c>
       <c r="F97">
-        <v>1.000529801324503</v>
+        <v>0.8689197725837019</v>
       </c>
       <c r="G97">
-        <v>0.9158186038207462</v>
+        <v>1.000588532032958</v>
       </c>
       <c r="H97">
-        <v>1.00413322827112</v>
+        <v>1.003415802041842</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4123,25 +4102,25 @@
         <v>44344</v>
       </c>
       <c r="B98">
-        <v>1.03022777265309</v>
+        <v>1.023521306957977</v>
       </c>
       <c r="C98">
-        <v>1.023521306957977</v>
+        <v>0.9261738975183003</v>
       </c>
       <c r="D98">
         <v>1.12502619995808</v>
       </c>
       <c r="E98">
-        <v>0.8729016786570745</v>
+        <v>1.03022777265309</v>
       </c>
       <c r="F98">
-        <v>1.029315673289183</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="G98">
-        <v>0.9261738975183003</v>
+        <v>1.029342525643181</v>
       </c>
       <c r="H98">
-        <v>1.008837677985614</v>
+        <v>1.00850922298534</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4155,25 +4134,25 @@
         <v>44347</v>
       </c>
       <c r="B99">
-        <v>1.029021500035479</v>
+        <v>1.020864088180297</v>
       </c>
       <c r="C99">
-        <v>1.020864088180297</v>
+        <v>0.9233172647741474</v>
       </c>
       <c r="D99">
         <v>1.15620415007336</v>
       </c>
       <c r="E99">
-        <v>0.8976818545163868</v>
+        <v>1.029021500035479</v>
       </c>
       <c r="F99">
-        <v>1.071346578366446</v>
+        <v>0.8976626658243841</v>
       </c>
       <c r="G99">
-        <v>0.9233172647741474</v>
+        <v>1.07138052799731</v>
       </c>
       <c r="H99">
-        <v>1.024026597897359</v>
+        <v>1.023620941445429</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4187,25 +4166,25 @@
         <v>44348</v>
       </c>
       <c r="B100">
-        <v>1.026112254310651</v>
+        <v>1.025489617163665</v>
       </c>
       <c r="C100">
-        <v>1.025489617163665</v>
+        <v>0.9087662917336189</v>
       </c>
       <c r="D100">
         <v>1.151645357367428</v>
       </c>
       <c r="E100">
-        <v>0.8928856914468426</v>
+        <v>1.026112254310651</v>
       </c>
       <c r="F100">
-        <v>1.061633554083885</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="G100">
-        <v>0.9087662917336189</v>
+        <v>1.061627711451152</v>
       </c>
       <c r="H100">
-        <v>1.018867795499818</v>
+        <v>1.018833761073172</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4219,25 +4198,25 @@
         <v>44349</v>
       </c>
       <c r="B101">
-        <v>1.024125452352232</v>
+        <v>1.01781320736148</v>
       </c>
       <c r="C101">
-        <v>1.01781320736148</v>
+        <v>0.8966256025709693</v>
       </c>
       <c r="D101">
         <v>1.131209390064976</v>
       </c>
       <c r="E101">
-        <v>0.8729016786570745</v>
+        <v>1.024125452352232</v>
       </c>
       <c r="F101">
-        <v>1.05448123620309</v>
+        <v>0.8729206148662876</v>
       </c>
       <c r="G101">
-        <v>0.8966256025709693</v>
+        <v>1.05448125105095</v>
       </c>
       <c r="H101">
-        <v>1.007340227202334</v>
+        <v>1.007027457611357</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4251,25 +4230,25 @@
         <v>44350</v>
       </c>
       <c r="B102">
-        <v>1.02398353792663</v>
+        <v>1.013482924908966</v>
       </c>
       <c r="C102">
-        <v>1.013482924908966</v>
+        <v>0.8943938582396</v>
       </c>
       <c r="D102">
         <v>1.114808216306854</v>
       </c>
       <c r="E102">
-        <v>0.8609112709832135</v>
+        <v>1.02398353792663</v>
       </c>
       <c r="F102">
-        <v>1.035496688741722</v>
+        <v>0.8609180880185302</v>
       </c>
       <c r="G102">
-        <v>0.8943938582396</v>
+        <v>1.035480073986884</v>
       </c>
       <c r="H102">
-        <v>0.998401062277722</v>
+        <v>0.9978745619689106</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4283,25 +4262,25 @@
         <v>44351</v>
       </c>
       <c r="B103">
-        <v>1.028382885120273</v>
+        <v>1.01446708001181</v>
       </c>
       <c r="C103">
-        <v>1.01446708001181</v>
+        <v>0.9012676307802178</v>
       </c>
       <c r="D103">
         <v>1.129480192831691</v>
       </c>
       <c r="E103">
-        <v>0.8705035971223022</v>
+        <v>1.028382885120273</v>
       </c>
       <c r="F103">
-        <v>1.051567328918322</v>
+        <v>0.8704990524320909</v>
       </c>
       <c r="G103">
-        <v>0.9012676307802178</v>
+        <v>1.051622666890869</v>
       </c>
       <c r="H103">
-        <v>1.007243461115291</v>
+        <v>1.006555289852218</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4315,25 +4294,25 @@
         <v>44354</v>
       </c>
       <c r="B104">
-        <v>1.026254168736252</v>
+        <v>1.013679755929535</v>
       </c>
       <c r="C104">
-        <v>1.013679755929535</v>
+        <v>0.9043028030708801</v>
       </c>
       <c r="D104">
         <v>1.120886606581429</v>
       </c>
       <c r="E104">
-        <v>0.8848920863309353</v>
+        <v>1.026254168736252</v>
       </c>
       <c r="F104">
-        <v>1.030640176600442</v>
+        <v>0.8849231417140451</v>
       </c>
       <c r="G104">
-        <v>0.9043028030708801</v>
+        <v>1.030687741718513</v>
       </c>
       <c r="H104">
-        <v>1.004455378353305</v>
+        <v>1.003838450788146</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4347,25 +4326,25 @@
         <v>44355</v>
       </c>
       <c r="B105">
-        <v>1.022351522032215</v>
+        <v>1.015451235114654</v>
       </c>
       <c r="C105">
-        <v>1.015451235114654</v>
+        <v>0.9064452776289948</v>
       </c>
       <c r="D105">
         <v>1.114336617061413</v>
       </c>
       <c r="E105">
-        <v>0.8952837729816148</v>
+        <v>1.022351522032215</v>
       </c>
       <c r="F105">
-        <v>1.030993377483444</v>
+        <v>0.8952937460518005</v>
       </c>
       <c r="G105">
-        <v>0.9064452776289948</v>
+        <v>1.031024045737347</v>
       </c>
       <c r="H105">
-        <v>1.004563677300032</v>
+        <v>1.004224759152767</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4379,25 +4358,25 @@
         <v>44356</v>
       </c>
       <c r="B106">
-        <v>1.018023132051373</v>
+        <v>1.01180986123413</v>
       </c>
       <c r="C106">
-        <v>1.01180986123413</v>
+        <v>0.8988573469023388</v>
       </c>
       <c r="D106">
         <v>1.113026619157409</v>
       </c>
       <c r="E106">
-        <v>0.9008792965627499</v>
+        <v>1.018023132051373</v>
       </c>
       <c r="F106">
-        <v>1.033818984547461</v>
+        <v>0.9008738681827754</v>
       </c>
       <c r="G106">
-        <v>0.8988573469023388</v>
+        <v>1.033798553892719</v>
       </c>
       <c r="H106">
-        <v>1.003014773628759</v>
+        <v>1.002700231232689</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4411,25 +4390,25 @@
         <v>44357</v>
       </c>
       <c r="B107">
-        <v>1.024905981693039</v>
+        <v>1.017911622871765</v>
       </c>
       <c r="C107">
-        <v>1.017911622871765</v>
+        <v>0.8988573469023388</v>
       </c>
       <c r="D107">
         <v>1.143051771117166</v>
       </c>
       <c r="E107">
-        <v>0.903277378097522</v>
+        <v>1.024905981693039</v>
       </c>
       <c r="F107">
-        <v>1.076467991169978</v>
+        <v>0.903295430616972</v>
       </c>
       <c r="G107">
-        <v>0.8988573469023388</v>
+        <v>1.076509164284513</v>
       </c>
       <c r="H107">
-        <v>1.018068701418282</v>
+        <v>1.017727867322316</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4443,25 +4422,25 @@
         <v>44358</v>
       </c>
       <c r="B108">
-        <v>1.016320158944157</v>
+        <v>1.015943312666076</v>
       </c>
       <c r="C108">
-        <v>1.015943312666076</v>
+        <v>0.8857346902338867</v>
       </c>
       <c r="D108">
         <v>1.150806958708866</v>
       </c>
       <c r="E108">
-        <v>0.8745003996802558</v>
+        <v>1.016320158944157</v>
       </c>
       <c r="F108">
-        <v>1.098543046357616</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="G108">
-        <v>0.8857346902338867</v>
+        <v>1.098537077518076</v>
       </c>
       <c r="H108">
-        <v>1.01463364087128</v>
+        <v>1.014613827486608</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4475,25 +4454,25 @@
         <v>44362</v>
       </c>
       <c r="B109">
-        <v>1.009721138153693</v>
+        <v>1.010136797559295</v>
       </c>
       <c r="C109">
-        <v>1.010136797559295</v>
+        <v>0.869666131048027</v>
       </c>
       <c r="D109">
         <v>1.139802976315238</v>
       </c>
       <c r="E109">
-        <v>0.8760991207034374</v>
+        <v>1.009721138153693</v>
       </c>
       <c r="F109">
-        <v>1.08962472406181</v>
+        <v>0.8760791745630658</v>
       </c>
       <c r="G109">
-        <v>0.869666131048027</v>
+        <v>1.089625021019001</v>
       </c>
       <c r="H109">
-        <v>1.006733838899672</v>
+        <v>1.006751674492475</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4507,25 +4486,25 @@
         <v>44363</v>
       </c>
       <c r="B110">
-        <v>1.003334989001632</v>
+        <v>0.9916346816258242</v>
       </c>
       <c r="C110">
-        <v>0.9916346816258242</v>
+        <v>0.8649348330655239</v>
       </c>
       <c r="D110">
         <v>1.090337455460071</v>
       </c>
       <c r="E110">
-        <v>0.8665067945643485</v>
+        <v>1.003334989001632</v>
       </c>
       <c r="F110">
-        <v>1.033289183222958</v>
+        <v>0.8664982101495051</v>
       </c>
       <c r="G110">
-        <v>0.8649348330655239</v>
+        <v>1.03329409786447</v>
       </c>
       <c r="H110">
-        <v>0.9821893127641388</v>
+        <v>0.9816037469293486</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4539,25 +4518,25 @@
         <v>44364</v>
       </c>
       <c r="B111">
-        <v>1.001419144256014</v>
+        <v>0.993012498769806</v>
       </c>
       <c r="C111">
-        <v>0.993012498769806</v>
+        <v>0.8645777539725049</v>
       </c>
       <c r="D111">
         <v>1.111978620834207</v>
       </c>
       <c r="E111">
-        <v>0.8745003996802558</v>
+        <v>1.001419144256014</v>
       </c>
       <c r="F111">
-        <v>1.059337748344371</v>
+        <v>0.8744998947146768</v>
       </c>
       <c r="G111">
-        <v>0.8645777539725049</v>
+        <v>1.059357659324029</v>
       </c>
       <c r="H111">
-        <v>0.9913938131330847</v>
+        <v>0.9909763917608861</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4571,25 +4550,25 @@
         <v>44365</v>
       </c>
       <c r="B112">
-        <v>0.9994323422975946</v>
+        <v>1.005904930617065</v>
       </c>
       <c r="C112">
-        <v>1.005904930617065</v>
+        <v>0.867702196036422</v>
       </c>
       <c r="D112">
         <v>1.133095787046741</v>
       </c>
       <c r="E112">
-        <v>0.8928856914468426</v>
+        <v>0.9994323422975946</v>
       </c>
       <c r="F112">
-        <v>1.096688741721854</v>
+        <v>0.8928721836176037</v>
       </c>
       <c r="G112">
-        <v>0.867702196036422</v>
+        <v>1.096687405414495</v>
       </c>
       <c r="H112">
-        <v>1.005982859842195</v>
+        <v>1.006304262637678</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4603,25 +4582,25 @@
         <v>44368</v>
       </c>
       <c r="B113">
-        <v>1.002412545235223</v>
+        <v>1.002066725715973</v>
       </c>
       <c r="C113">
-        <v>1.002066725715973</v>
+        <v>0.8645777539725049</v>
       </c>
       <c r="D113">
         <v>1.143994969608048</v>
       </c>
       <c r="E113">
-        <v>0.9264588329336531</v>
+        <v>1.002412545235223</v>
       </c>
       <c r="F113">
-        <v>1.11046357615894</v>
+        <v>0.9264582017266794</v>
       </c>
       <c r="G113">
-        <v>0.8645777539725049</v>
+        <v>1.110475870186649</v>
       </c>
       <c r="H113">
-        <v>1.014816536285815</v>
+        <v>1.014800994732963</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4635,25 +4614,25 @@
         <v>44369</v>
       </c>
       <c r="B114">
-        <v>1.012062726176116</v>
+        <v>1.007085916740478</v>
       </c>
       <c r="C114">
-        <v>1.007085916740478</v>
+        <v>0.8654704517050527</v>
       </c>
       <c r="D114">
         <v>1.14823936281702</v>
       </c>
       <c r="E114">
-        <v>0.9208633093525179</v>
+        <v>1.012062726176116</v>
       </c>
       <c r="F114">
-        <v>1.109757174392936</v>
+        <v>0.9208780795957044</v>
       </c>
       <c r="G114">
-        <v>0.8654704517050527</v>
+        <v>1.109803262148983</v>
       </c>
       <c r="H114">
-        <v>1.017536945627275</v>
+        <v>1.017297233855378</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4667,25 +4646,25 @@
         <v>44370</v>
       </c>
       <c r="B115">
-        <v>1.014049528134535</v>
+        <v>1.022537151855132</v>
       </c>
       <c r="C115">
-        <v>1.022537151855132</v>
+        <v>0.87046955900732</v>
       </c>
       <c r="D115">
         <v>1.161706141270174</v>
       </c>
       <c r="E115">
-        <v>0.9200639488409272</v>
+        <v>1.014049528134535</v>
       </c>
       <c r="F115">
-        <v>1.136953642384106</v>
+        <v>0.9200884396715098</v>
       </c>
       <c r="G115">
-        <v>0.87046955900732</v>
+        <v>1.136959811669749</v>
       </c>
       <c r="H115">
-        <v>1.027654779194064</v>
+        <v>1.028083759397528</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4699,25 +4678,25 @@
         <v>44371</v>
       </c>
       <c r="B116">
-        <v>1.008514865536082</v>
+        <v>1.01692746776892</v>
       </c>
       <c r="C116">
-        <v>1.01692746776892</v>
+        <v>0.8732369219782181</v>
       </c>
       <c r="D116">
         <v>1.147034164745336</v>
       </c>
       <c r="E116">
-        <v>0.9072741806554757</v>
+        <v>1.008514865536082</v>
       </c>
       <c r="F116">
-        <v>1.146136865342164</v>
+        <v>0.9072962728995578</v>
       </c>
       <c r="G116">
-        <v>0.8732369219782181</v>
+        <v>1.146124096182949</v>
       </c>
       <c r="H116">
-        <v>1.022646121418</v>
+        <v>1.023068149992372</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4731,25 +4710,25 @@
         <v>44372</v>
       </c>
       <c r="B117">
-        <v>1.022635350883417</v>
+        <v>1.019289440015747</v>
       </c>
       <c r="C117">
-        <v>1.019289440015747</v>
+        <v>0.8951972861988929</v>
       </c>
       <c r="D117">
         <v>1.173967721651645</v>
       </c>
       <c r="E117">
-        <v>0.9096722621902478</v>
+        <v>1.022635350883417</v>
       </c>
       <c r="F117">
-        <v>1.162913907284768</v>
+        <v>0.9096651926721415</v>
       </c>
       <c r="G117">
-        <v>0.8951972861988929</v>
+        <v>1.162939297124601</v>
       </c>
       <c r="H117">
-        <v>1.037381548860461</v>
+        <v>1.037217001365336</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4763,31 +4742,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.022635350883417</v>
+        <v>1.027457927369353</v>
       </c>
       <c r="C118">
-        <v>1.019289440015747</v>
+        <v>0.8851098018211033</v>
       </c>
       <c r="D118">
-        <v>1.173967721651645</v>
+        <v>1.198805281911549</v>
       </c>
       <c r="E118">
-        <v>0.9096722621902478</v>
+        <v>1.016249201731356</v>
       </c>
       <c r="F118">
-        <v>1.162913907284768</v>
+        <v>0.914455674878922</v>
       </c>
       <c r="G118">
-        <v>0.8951972861988929</v>
+        <v>1.183117538254582</v>
       </c>
       <c r="H118">
-        <v>1.037381548860461</v>
+        <v>1.045092474359075</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.014762326542663</v>
+      </c>
+      <c r="C119">
+        <v>0.872879842885199</v>
+      </c>
+      <c r="D119">
+        <v>1.198386082582268</v>
+      </c>
+      <c r="E119">
+        <v>1.008869651600085</v>
+      </c>
+      <c r="F119">
+        <v>0.8952937460518005</v>
+      </c>
+      <c r="G119">
+        <v>1.197074155036153</v>
+      </c>
+      <c r="H119">
+        <v>1.038747291160972</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.016336974707214</v>
+      </c>
+      <c r="C120">
+        <v>0.8801999642920906</v>
+      </c>
+      <c r="D120">
+        <v>1.225896038566338</v>
+      </c>
+      <c r="E120">
+        <v>1.018519832540978</v>
+      </c>
+      <c r="F120">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="G120">
+        <v>1.222212880443921</v>
+      </c>
+      <c r="H120">
+        <v>1.052799391169822</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.011613030213562</v>
+      </c>
+      <c r="C121">
+        <v>0.8642206748794857</v>
+      </c>
+      <c r="D121">
+        <v>1.220446447285684</v>
+      </c>
+      <c r="E121">
+        <v>1.024835024480238</v>
+      </c>
+      <c r="F121">
+        <v>0.8721309749420931</v>
+      </c>
+      <c r="G121">
+        <v>1.199512359172692</v>
+      </c>
+      <c r="H121">
+        <v>1.040516750521026</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>0.9947839779549256</v>
+      </c>
+      <c r="C122">
+        <v>0.8394929476879128</v>
+      </c>
+      <c r="D122">
+        <v>1.178578914273737</v>
+      </c>
+      <c r="E122">
+        <v>1.00517987653445</v>
+      </c>
+      <c r="F122">
+        <v>0.8441250789639924</v>
+      </c>
+      <c r="G122">
+        <v>1.182781234235749</v>
+      </c>
+      <c r="H122">
+        <v>1.015409449059048</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>0.9928156677492372</v>
+      </c>
+      <c r="C123">
+        <v>0.8396714872344223</v>
+      </c>
+      <c r="D123">
+        <v>1.184657304548313</v>
+      </c>
+      <c r="E123">
+        <v>0.9936848080607394</v>
+      </c>
+      <c r="F123">
+        <v>0.8481259212465783</v>
+      </c>
+      <c r="G123">
+        <v>1.206238439549353</v>
+      </c>
+      <c r="H123">
+        <v>1.018652692873174</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>0.995079224485779</v>
+      </c>
+      <c r="C124">
+        <v>0.8471701481878235</v>
+      </c>
+      <c r="D124">
+        <v>1.162596939844896</v>
+      </c>
+      <c r="E124">
+        <v>0.9975164975519761</v>
+      </c>
+      <c r="F124">
+        <v>0.8521267635291641</v>
+      </c>
+      <c r="G124">
+        <v>1.201698335295107</v>
+      </c>
+      <c r="H124">
+        <v>1.016311994550746</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.006200177147919</v>
+      </c>
+      <c r="C125">
+        <v>0.8472594179610784</v>
+      </c>
+      <c r="D125">
+        <v>1.206350869838608</v>
+      </c>
+      <c r="E125">
+        <v>1.004257432768041</v>
+      </c>
+      <c r="F125">
+        <v>0.8752895346388714</v>
+      </c>
+      <c r="G125">
+        <v>1.265007566840424</v>
+      </c>
+      <c r="H125">
+        <v>1.041282302228568</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>0.9958665485680543</v>
+      </c>
+      <c r="C126">
+        <v>0.8411890733797536</v>
+      </c>
+      <c r="D126">
+        <v>1.216411653741354</v>
+      </c>
+      <c r="E126">
+        <v>1.002554459660824</v>
+      </c>
+      <c r="F126">
+        <v>0.9080859128237524</v>
+      </c>
+      <c r="G126">
+        <v>1.285185807970405</v>
+      </c>
+      <c r="H126">
+        <v>1.048007928537092</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>0.9992126759177247</v>
+      </c>
+      <c r="C127">
+        <v>0.8413676129262631</v>
+      </c>
+      <c r="D127">
+        <v>1.207503667994131</v>
+      </c>
+      <c r="E127">
+        <v>0.9921947065919251</v>
+      </c>
+      <c r="F127">
+        <v>0.9008738681827754</v>
+      </c>
+      <c r="G127">
+        <v>1.295106776525979</v>
+      </c>
+      <c r="H127">
+        <v>1.045774713416413</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4843,7 +5110,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4866,7 +5133,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4886,10 +5153,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4899,13 +5166,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -4931,22 +5198,19 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4972,22 +5236,19 @@
         <v>76</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="J2">
-        <v>21.55</v>
+        <v>2.928299903869629</v>
       </c>
       <c r="K2">
-        <v>4.32</v>
+        <v>33.26729965209961</v>
       </c>
       <c r="L2">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="M2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>-23.3442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5016,19 +5277,16 @@
         <v>0.15</v>
       </c>
       <c r="J3">
-        <v>34.32</v>
+        <v>1.640599966049194</v>
       </c>
       <c r="K3">
-        <v>3.01</v>
+        <v>13.86719989776611</v>
       </c>
       <c r="L3">
-        <v>-5.03</v>
-      </c>
-      <c r="M3">
-        <v>-23.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.4474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5057,19 +5315,16 @@
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>66.09</v>
+        <v>11.25949954986572</v>
       </c>
       <c r="K4">
-        <v>11.27</v>
+        <v>66.29789733886719</v>
       </c>
       <c r="L4">
-        <v>19.57</v>
-      </c>
-      <c r="M4">
-        <v>72.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>72.0951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5095,22 +5350,19 @@
         <v>79</v>
       </c>
       <c r="I5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J5">
-        <v>67.98</v>
+        <v>4.20359992980957</v>
       </c>
       <c r="K5">
-        <v>3.81</v>
+        <v>20.93000030517578</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
-      </c>
-      <c r="M5">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1.5999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5139,19 +5391,16 @@
         <v>0.15</v>
       </c>
       <c r="J6">
-        <v>54.9</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K6">
-        <v>5.85</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L6">
-        <v>3.68</v>
-      </c>
-      <c r="M6">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -5180,16 +5429,13 @@
         <v>0.15</v>
       </c>
       <c r="J7">
-        <v>14.96</v>
+        <v>6.371699810028076</v>
       </c>
       <c r="K7">
-        <v>1.76</v>
+        <v>59.66279983520508</v>
       </c>
       <c r="L7">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M7">
-        <v>4.45</v>
+        <v>18.7513</v>
       </c>
     </row>
   </sheetData>
@@ -5233,10 +5479,10 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>164</v>
@@ -5253,10 +5499,10 @@
         <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>165</v>
@@ -5273,10 +5519,10 @@
         <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>166</v>
@@ -5293,10 +5539,10 @@
         <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
         <v>167</v>
@@ -5313,10 +5559,10 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
         <v>168</v>
@@ -5333,10 +5579,10 @@
         <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>169</v>
@@ -5353,10 +5599,10 @@
         <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>170</v>
@@ -5373,10 +5619,10 @@
         <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
         <v>171</v>
@@ -5393,10 +5639,10 @@
         <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
         <v>172</v>
@@ -5413,10 +5659,10 @@
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
         <v>173</v>
@@ -5430,13 +5676,13 @@
         <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12" t="s">
         <v>174</v>
@@ -5450,13 +5696,13 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
         <v>175</v>
@@ -5470,13 +5716,13 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
@@ -5490,13 +5736,13 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
         <v>177</v>
@@ -5510,13 +5756,13 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
         <v>178</v>
@@ -5530,13 +5776,13 @@
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
         <v>179</v>
@@ -5550,13 +5796,13 @@
         <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
         <v>180</v>
@@ -5570,13 +5816,13 @@
         <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
         <v>181</v>
@@ -5590,13 +5836,13 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
         <v>182</v>
@@ -5610,16 +5856,16 @@
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
         <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5629,7 +5875,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5637,153 +5883,109 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
